--- a/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="8055" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="8055" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2191,7 +2191,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2214,7 +2214,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 24 2015 15:39:48</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3074,11 +3074,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.5037418321779013E-2</v>
+        <v>1.6027803043986745E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3120,11 +3120,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>53097</v>
+        <v>53142</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.6344655155437602E-4</v>
+        <v>3.8385692042493496E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="E2" s="117" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="F2" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4713,11 +4713,11 @@
       </c>
       <c r="L2" s="119">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M2" s="120">
-        <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>42136</v>
+        <f>_xll.qlRateHelperPillarDate($E2,Trigger)</f>
+        <v>42181</v>
       </c>
       <c r="N2" s="63">
         <v>10</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="E3" s="117" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F3" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="G3" s="118">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>3.3570000000000003E-4</v>
+        <v>3.143E-4</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="65" t="b">
@@ -4756,11 +4756,11 @@
       </c>
       <c r="L3" s="119">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M3" s="120">
-        <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>42138</v>
+        <f>_xll.qlRateHelperPillarDate($E3,Trigger)</f>
+        <v>42185</v>
       </c>
       <c r="N3" s="63">
         <v>20</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="E4" s="117" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="F4" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="G4" s="118">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>4.571E-4</v>
+        <v>3.7860000000000004E-4</v>
       </c>
       <c r="H4" s="118"/>
       <c r="I4" s="65" t="b">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="L4" s="119">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M4" s="120">
-        <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>42144</v>
+        <f>_xll.qlRateHelperPillarDate($E4,Trigger)</f>
+        <v>42191</v>
       </c>
       <c r="N4" s="63">
         <v>30</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="E5" s="117" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00315#0001</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F5" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G5" s="118">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>6.8570000000000002E-4</v>
+        <v>5.9290000000000005E-4</v>
       </c>
       <c r="H5" s="118"/>
       <c r="I5" s="65" t="b">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="L5" s="119">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M5" s="120">
-        <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>42170</v>
+        <f>_xll.qlRateHelperPillarDate($E5,Trigger)</f>
+        <v>42214</v>
       </c>
       <c r="N5" s="63">
         <v>60</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="E6" s="117" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="F6" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="G6" s="118">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>8.7140000000000004E-4</v>
+        <v>8.8570000000000012E-4</v>
       </c>
       <c r="H6" s="118"/>
       <c r="I6" s="65" t="b">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="L6" s="119">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M6" s="120">
-        <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>42198</v>
+        <f>_xll.qlRateHelperPillarDate($E6,Trigger)</f>
+        <v>42244</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E7" s="117" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F7" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="G7" s="118">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.0070999999999999E-3</v>
+        <v>9.5710000000000001E-4</v>
       </c>
       <c r="H7" s="118"/>
       <c r="I7" s="65" t="b">
@@ -4922,11 +4922,11 @@
       </c>
       <c r="L7" s="119">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M7" s="120">
-        <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>42229</v>
+        <f>_xll.qlRateHelperPillarDate($E7,Trigger)</f>
+        <v>42276</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="E8" s="117" t="str">
         <f>Deposits!E13</f>
-        <v>obj_0031b#0001</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="F8" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="G8" s="118">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.3786E-3</v>
+        <v>1.3928999999999999E-3</v>
       </c>
       <c r="H8" s="118"/>
       <c r="I8" s="65" t="b">
@@ -4959,11 +4959,11 @@
       </c>
       <c r="L8" s="119">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M8" s="120">
-        <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>42321</v>
+        <f>_xll.qlRateHelperPillarDate($E8,Trigger)</f>
+        <v>42367</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E9" s="117" t="str">
         <f>Deposits!E19</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="F9" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
@@ -4996,11 +4996,11 @@
       </c>
       <c r="L9" s="119">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M9" s="120">
-        <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>42503</v>
+        <f>_xll.qlRateHelperPillarDate($E9,Trigger)</f>
+        <v>42550</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E10" s="133" t="str">
         <f>FRAs!G3</f>
-        <v>obj_00316#0001</v>
+        <v>obj_0041c#0001</v>
       </c>
       <c r="F10" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="G10" s="134">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>1E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="H10" s="134"/>
       <c r="I10" s="135" t="b">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="L10" s="136">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>42170</v>
+        <v>42214</v>
       </c>
       <c r="M10" s="137">
-        <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>42262</v>
+        <f>_xll.qlRateHelperPillarDate($E10,Trigger)</f>
+        <v>42306</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="E11" s="117" t="str">
         <f>FRAs!G4</f>
-        <v>obj_00324#0001</v>
+        <v>obj_00420#0001</v>
       </c>
       <c r="F11" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G11" s="118">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>1E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="65" t="b">
@@ -5080,11 +5080,11 @@
       </c>
       <c r="L11" s="119">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>42198</v>
+        <v>42244</v>
       </c>
       <c r="M11" s="120">
-        <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42290</v>
+        <f>_xll.qlRateHelperPillarDate($E11,Trigger)</f>
+        <v>42338</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E12" s="117" t="str">
         <f>FRAs!G5</f>
-        <v>obj_00318#0001</v>
+        <v>obj_0041e#0001</v>
       </c>
       <c r="F12" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="G12" s="118">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="65" t="b">
@@ -5122,11 +5122,11 @@
       </c>
       <c r="L12" s="119">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>42229</v>
+        <v>42276</v>
       </c>
       <c r="M12" s="120">
-        <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42321</v>
+        <f>_xll.qlRateHelperPillarDate($E12,Trigger)</f>
+        <v>42367</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E13" s="117" t="str">
         <f>FRAs!G6</f>
-        <v>obj_00325#0001</v>
+        <v>obj_00426#0001</v>
       </c>
       <c r="F13" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G13" s="118">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="65" t="b">
@@ -5164,11 +5164,11 @@
       </c>
       <c r="L13" s="119">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>42261</v>
+        <v>42306</v>
       </c>
       <c r="M13" s="120">
-        <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42352</v>
+        <f>_xll.qlRateHelperPillarDate($E13,Trigger)</f>
+        <v>42398</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="E14" s="117" t="str">
         <f>FRAs!G7</f>
-        <v>obj_00321#0001</v>
+        <v>obj_00425#0001</v>
       </c>
       <c r="F14" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G14" s="118">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="65" t="b">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="L14" s="119">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>42290</v>
+        <v>42338</v>
       </c>
       <c r="M14" s="120">
-        <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42382</v>
+        <f>_xll.qlRateHelperPillarDate($E14,Trigger)</f>
+        <v>42429</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="E15" s="117" t="str">
         <f>FRAs!G8</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_00424#0001</v>
       </c>
       <c r="F15" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G15" s="118">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H15" s="118"/>
       <c r="I15" s="65" t="b">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="L15" s="119">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>42321</v>
+        <v>42367</v>
       </c>
       <c r="M15" s="120">
-        <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42415</v>
+        <f>_xll.qlRateHelperPillarDate($E15,Trigger)</f>
+        <v>42458</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="E16" s="117" t="str">
         <f>FRAs!G9</f>
-        <v>obj_00323#0001</v>
+        <v>obj_00423#0001</v>
       </c>
       <c r="F16" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G16" s="118">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>1.15E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H16" s="118"/>
       <c r="I16" s="65" t="b">
@@ -5290,11 +5290,11 @@
       </c>
       <c r="L16" s="119">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>42415</v>
+        <v>42458</v>
       </c>
       <c r="M16" s="120">
-        <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42506</v>
+        <f>_xll.qlRateHelperPillarDate($E16,Trigger)</f>
+        <v>42550</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E17" s="117" t="str">
         <f>FRAs!G10</f>
-        <v>obj_00326#0001</v>
+        <v>obj_00422#0001</v>
       </c>
       <c r="F17" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="G17" s="118">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="65" t="b">
@@ -5332,11 +5332,11 @@
       </c>
       <c r="L17" s="119">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42503</v>
+        <v>42550</v>
       </c>
       <c r="M17" s="120">
-        <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42597</v>
+        <f>_xll.qlRateHelperPillarDate($E17,Trigger)</f>
+        <v>42642</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E18" s="117" t="str">
         <f>FRAs!G11</f>
-        <v>obj_00319#0001</v>
+        <v>obj_00421#0001</v>
       </c>
       <c r="F18" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G18" s="118">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="65" t="b">
@@ -5374,11 +5374,11 @@
       </c>
       <c r="L18" s="119">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42597</v>
+        <v>42642</v>
       </c>
       <c r="M18" s="120">
-        <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42689</v>
+        <f>_xll.qlRateHelperPillarDate($E18,Trigger)</f>
+        <v>42733</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="E19" s="117" t="str">
         <f>FRAs!G12</f>
-        <v>obj_00322#0001</v>
+        <v>obj_0041f#0001</v>
       </c>
       <c r="F19" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="G19" s="118">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="65" t="b">
@@ -5416,11 +5416,11 @@
       </c>
       <c r="L19" s="119">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42688</v>
+        <v>42733</v>
       </c>
       <c r="M19" s="120">
-        <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42780</v>
+        <f>_xll.qlRateHelperPillarDate($E19,Trigger)</f>
+        <v>42823</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="E20" s="122" t="str">
         <f>FRAs!G13</f>
-        <v>obj_00320#0001</v>
+        <v>obj_0041d#0001</v>
       </c>
       <c r="F20" s="122" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G20" s="123">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>1.65E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="H20" s="123"/>
       <c r="I20" s="124" t="b">
@@ -5458,11 +5458,11 @@
       </c>
       <c r="L20" s="125">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42779</v>
+        <v>42823</v>
       </c>
       <c r="M20" s="126">
-        <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42870</v>
+        <f>_xll.qlRateHelperPillarDate($E20,Trigger)</f>
+        <v>42915</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5476,15 +5476,15 @@
       </c>
       <c r="D21" s="117" t="str">
         <f t="array" ref="D21:D62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E21" s="117" t="str">
         <f>Futures!J3</f>
-        <v>obj_00351#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="F21" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G21" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E21,Trigger)</f>
@@ -5507,9 +5507,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M21" s="120">
+        <f>_xll.qlRateHelperPillarDate($E21,Trigger)</f>
+        <v>42292</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5522,15 +5522,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D22" s="117" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E22" s="117" t="str">
         <f>Futures!J4</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="F22" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G22" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E22,Trigger)</f>
@@ -5553,9 +5553,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M22" s="120">
+        <f>_xll.qlRateHelperPillarDate($E22,Trigger)</f>
+        <v>42327</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,15 +5568,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D23" s="117" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E23" s="117" t="str">
         <f>Futures!J5</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="F23" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G23" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E23,Trigger)</f>
@@ -5599,9 +5599,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M23" s="120">
+        <f>_xll.qlRateHelperPillarDate($E23,Trigger)</f>
+        <v>42354</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,15 +5614,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D24" s="117" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E24" s="117" t="str">
         <f>Futures!J6</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F24" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G24" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E24,Trigger)</f>
@@ -5645,9 +5645,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M24" s="120">
+        <f>_xll.qlRateHelperPillarDate($E24,Trigger)</f>
+        <v>42390</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5660,15 +5660,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D25" s="117" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E25" s="117" t="str">
         <f>Futures!J7</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="F25" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="G25" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E25,Trigger)</f>
@@ -5691,9 +5691,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M25" s="120">
+        <f>_xll.qlRateHelperPillarDate($E25,Trigger)</f>
+        <v>42418</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5706,15 +5706,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D26" s="117" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E26" s="117" t="str">
         <f>Futures!J8</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="F26" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G26" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E26,Trigger)</f>
@@ -5737,9 +5737,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M26" s="120">
+        <f>_xll.qlRateHelperPillarDate($E26,Trigger)</f>
+        <v>42445</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,15 +5752,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D27" s="117" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="E27" s="117" t="str">
         <f>Futures!J9</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="F27" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MX5_Quote</v>
+        <v>JPYFUT3MF6_Quote</v>
       </c>
       <c r="G27" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E27,Trigger)</f>
@@ -5783,9 +5783,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M27" s="120">
+        <f>_xll.qlRateHelperPillarDate($E27,Trigger)</f>
+        <v>42480</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5798,15 +5798,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D28" s="117" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="E28" s="117" t="str">
         <f>Futures!J10</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="F28" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MG6_Quote</v>
       </c>
       <c r="G28" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E28,Trigger)</f>
@@ -5829,9 +5829,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M28" s="120">
+        <f>_xll.qlRateHelperPillarDate($E28,Trigger)</f>
+        <v>42507</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,15 +5844,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="117" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="E29" s="117" t="str">
         <f>Futures!J11</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="F29" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MF6_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G29" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E29,Trigger)</f>
@@ -5875,9 +5875,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M29" s="120">
+        <f>_xll.qlRateHelperPillarDate($E29,Trigger)</f>
+        <v>42537</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5890,15 +5890,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="117" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="E30" s="117" t="str">
         <f>Futures!J12</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="F30" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MG6_Quote</v>
+        <v>JPYFUT3MJ6_Quote</v>
       </c>
       <c r="G30" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
@@ -5921,9 +5921,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M30" s="120">
+        <f>_xll.qlRateHelperPillarDate($E30,Trigger)</f>
+        <v>42571</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,15 +5936,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="117" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="E31" s="117" t="str">
         <f>Futures!J13</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="F31" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MK6_Quote</v>
       </c>
       <c r="G31" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E31,Trigger)</f>
@@ -5967,9 +5967,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M31" s="120">
+        <f>_xll.qlRateHelperPillarDate($E31,Trigger)</f>
+        <v>42600</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5982,15 +5982,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="117" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="E32" s="117" t="str">
         <f>Futures!J14</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F32" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MJ6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G32" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E32,Trigger)</f>
@@ -6013,9 +6013,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M32" s="120">
+        <f>_xll.qlRateHelperPillarDate($E32,Trigger)</f>
+        <v>42628</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,15 +6028,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="117" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E33" s="117" t="str">
         <f>Futures!J15</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="F33" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G33" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
@@ -6059,9 +6059,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M33" s="120">
+        <f>_xll.qlRateHelperPillarDate($E33,Trigger)</f>
+        <v>42725</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6074,15 +6074,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="117" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E34" s="117" t="str">
         <f>Futures!J16</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="F34" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G34" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E34,Trigger)</f>
@@ -6105,9 +6105,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M34" s="120">
+        <f>_xll.qlRateHelperPillarDate($E34,Trigger)</f>
+        <v>42815</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,15 +6120,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="117" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E35" s="117" t="str">
         <f>Futures!J17</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="F35" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G35" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E35,Trigger)</f>
@@ -6151,9 +6151,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M35" s="120">
+        <f>_xll.qlRateHelperPillarDate($E35,Trigger)</f>
+        <v>42901</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6166,15 +6166,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="117" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E36" s="117" t="str">
         <f>Futures!J18</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="F36" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G36" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
@@ -6197,9 +6197,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M36" s="120">
+        <f>_xll.qlRateHelperPillarDate($E36,Trigger)</f>
+        <v>42999</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6212,15 +6212,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="117" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E37" s="117" t="str">
         <f>Futures!J19</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="F37" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G37" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E37,Trigger)</f>
@@ -6243,9 +6243,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M37" s="120">
+        <f>_xll.qlRateHelperPillarDate($E37,Trigger)</f>
+        <v>43089</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6258,15 +6258,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="117" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E38" s="117" t="str">
         <f>Futures!J20</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="F38" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G38" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E38,Trigger)</f>
@@ -6289,9 +6289,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M38" s="120">
+        <f>_xll.qlRateHelperPillarDate($E38,Trigger)</f>
+        <v>43179</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,15 +6304,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="117" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E39" s="117" t="str">
         <f>Futures!J21</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F39" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G39" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
@@ -6335,9 +6335,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M39" s="120">
+        <f>_xll.qlRateHelperPillarDate($E39,Trigger)</f>
+        <v>43272</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,15 +6350,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="117" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E40" s="117" t="str">
         <f>Futures!J22</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="F40" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G40" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E40,Trigger)</f>
@@ -6381,9 +6381,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M40" s="120">
+        <f>_xll.qlRateHelperPillarDate($E40,Trigger)</f>
+        <v>43363</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6396,15 +6396,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="117" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E41" s="117" t="str">
         <f>Futures!J23</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F41" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G41" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E41,Trigger)</f>
@@ -6427,9 +6427,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M41" s="120">
+        <f>_xll.qlRateHelperPillarDate($E41,Trigger)</f>
+        <v>43453</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,15 +6442,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="117" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E42" s="117" t="str">
         <f>Futures!J24</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="F42" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G42" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
@@ -6473,9 +6473,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M42" s="120">
+        <f>_xll.qlRateHelperPillarDate($E42,Trigger)</f>
+        <v>43543</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,15 +6488,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="117" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E43" s="117" t="str">
         <f>Futures!J25</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="F43" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G43" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
@@ -6519,9 +6519,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M43" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M43" s="120">
+        <f>_xll.qlRateHelperPillarDate($E43,Trigger)</f>
+        <v>43636</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,15 +6534,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="117" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E44" s="117" t="str">
         <f>Futures!J26</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="F44" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G44" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
@@ -6565,9 +6565,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M44" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M44" s="120">
+        <f>_xll.qlRateHelperPillarDate($E44,Trigger)</f>
+        <v>43727</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,15 +6580,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="117" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E45" s="117" t="str">
         <f>Futures!J27</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="F45" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G45" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
@@ -6611,9 +6611,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M45" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M45" s="120">
+        <f>_xll.qlRateHelperPillarDate($E45,Trigger)</f>
+        <v>43817</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6626,15 +6626,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="117" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E46" s="117" t="str">
         <f>Futures!J28</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="F46" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G46" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
@@ -6657,9 +6657,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M46" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M46" s="120">
+        <f>_xll.qlRateHelperPillarDate($E46,Trigger)</f>
+        <v>43908</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,15 +6672,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="117" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E47" s="117" t="str">
         <f>Futures!J29</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="F47" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G47" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
@@ -6703,9 +6703,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M47" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M47" s="120">
+        <f>_xll.qlRateHelperPillarDate($E47,Trigger)</f>
+        <v>44000</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,15 +6718,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="117" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E48" s="117" t="str">
         <f>Futures!J30</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F48" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G48" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
@@ -6749,9 +6749,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M48" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M48" s="120">
+        <f>_xll.qlRateHelperPillarDate($E48,Trigger)</f>
+        <v>44091</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6764,15 +6764,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="117" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E49" s="117" t="str">
         <f>Futures!J31</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F49" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G49" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E49,Trigger)</f>
@@ -6795,9 +6795,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M49" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M49" s="120">
+        <f>_xll.qlRateHelperPillarDate($E49,Trigger)</f>
+        <v>44181</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6810,15 +6810,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="117" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E50" s="117" t="str">
         <f>Futures!J32</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="F50" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G50" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E50,Trigger)</f>
@@ -6841,9 +6841,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M50" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M50" s="120">
+        <f>_xll.qlRateHelperPillarDate($E50,Trigger)</f>
+        <v>44271</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6856,15 +6856,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="117" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E51" s="117" t="str">
         <f>Futures!J33</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="F51" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G51" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E51,Trigger)</f>
@@ -6887,9 +6887,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M51" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M51" s="120">
+        <f>_xll.qlRateHelperPillarDate($E51,Trigger)</f>
+        <v>44364</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6902,15 +6902,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="117" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E52" s="117" t="str">
         <f>Futures!J34</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="F52" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G52" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E52,Trigger)</f>
@@ -6933,9 +6933,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M52" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M52" s="120">
+        <f>_xll.qlRateHelperPillarDate($E52,Trigger)</f>
+        <v>44455</v>
       </c>
       <c r="N52" s="131"/>
     </row>
@@ -6949,15 +6949,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="117" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E53" s="117" t="str">
         <f>Futures!J35</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="F53" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G53" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E53,Trigger)</f>
@@ -6980,9 +6980,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M53" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M53" s="120">
+        <f>_xll.qlRateHelperPillarDate($E53,Trigger)</f>
+        <v>44545</v>
       </c>
       <c r="O53" s="138"/>
     </row>
@@ -6996,15 +6996,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="117" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E54" s="117" t="str">
         <f>Futures!J36</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="F54" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G54" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E54,Trigger)</f>
@@ -7027,9 +7027,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M54" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M54" s="120">
+        <f>_xll.qlRateHelperPillarDate($E54,Trigger)</f>
+        <v>44635</v>
       </c>
       <c r="O54" s="138"/>
     </row>
@@ -7043,15 +7043,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="117" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E55" s="117" t="str">
         <f>Futures!J37</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="F55" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G55" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E55,Trigger)</f>
@@ -7074,9 +7074,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M55" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M55" s="120">
+        <f>_xll.qlRateHelperPillarDate($E55,Trigger)</f>
+        <v>44728</v>
       </c>
       <c r="O55" s="138"/>
     </row>
@@ -7090,15 +7090,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="117" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E56" s="117" t="str">
         <f>Futures!J38</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="F56" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G56" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E56,Trigger)</f>
@@ -7121,9 +7121,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M56" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M56" s="120">
+        <f>_xll.qlRateHelperPillarDate($E56,Trigger)</f>
+        <v>44819</v>
       </c>
       <c r="O56" s="138"/>
     </row>
@@ -7137,15 +7137,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="117" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E57" s="117" t="str">
         <f>Futures!J39</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="F57" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G57" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E57,Trigger)</f>
@@ -7168,9 +7168,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M57" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M57" s="120">
+        <f>_xll.qlRateHelperPillarDate($E57,Trigger)</f>
+        <v>44916</v>
       </c>
       <c r="O57" s="138"/>
     </row>
@@ -7184,15 +7184,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="117" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E58" s="117" t="str">
         <f>Futures!J40</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="F58" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G58" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E58,Trigger)</f>
@@ -7215,9 +7215,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M58" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M58" s="120">
+        <f>_xll.qlRateHelperPillarDate($E58,Trigger)</f>
+        <v>45006</v>
       </c>
       <c r="O58" s="138"/>
     </row>
@@ -7231,15 +7231,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="117" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E59" s="117" t="str">
         <f>Futures!J41</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="F59" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G59" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E59,Trigger)</f>
@@ -7262,9 +7262,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M59" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M59" s="120">
+        <f>_xll.qlRateHelperPillarDate($E59,Trigger)</f>
+        <v>45092</v>
       </c>
       <c r="O59" s="138"/>
     </row>
@@ -7278,15 +7278,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="117" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E60" s="117" t="str">
         <f>Futures!J42</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="F60" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="G60" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E60,Trigger)</f>
@@ -7309,9 +7309,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M60" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M60" s="120">
+        <f>_xll.qlRateHelperPillarDate($E60,Trigger)</f>
+        <v>45190</v>
       </c>
       <c r="O60" s="138"/>
     </row>
@@ -7325,15 +7325,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="117" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E61" s="117" t="str">
         <f>Futures!J43</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="F61" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM3_Quote</v>
+        <v>JPYFUT3MU3_Quote</v>
       </c>
       <c r="G61" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E61,Trigger)</f>
@@ -7356,9 +7356,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M61" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M61" s="120">
+        <f>_xll.qlRateHelperPillarDate($E61,Trigger)</f>
+        <v>45280</v>
       </c>
       <c r="O61" s="138"/>
     </row>
@@ -7372,15 +7372,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="122" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E62" s="117" t="str">
         <f>Futures!J44</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="F62" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU3_Quote</v>
+        <v>JPYFUT3MZ3_Quote</v>
       </c>
       <c r="G62" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E62,Trigger)</f>
@@ -7403,9 +7403,9 @@
         <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M62" s="120" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="M62" s="120">
+        <f>_xll.qlRateHelperPillarDate($E62,Trigger)</f>
+        <v>45371</v>
       </c>
       <c r="O62" s="138"/>
     </row>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E63" s="117" t="str">
         <f>Swaps!L5</f>
-        <v>obj_00332#0001</v>
+        <v>obj_00427#0001</v>
       </c>
       <c r="F63" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
@@ -7447,11 +7447,11 @@
       </c>
       <c r="L63" s="136">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M63" s="137">
-        <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42503</v>
+        <f>_xll.qlRateHelperPillarDate($E63,Trigger)</f>
+        <v>42550</v>
       </c>
       <c r="O63" s="138"/>
     </row>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="E64" s="117" t="str">
         <f>Swaps!L6</f>
-        <v>obj_00337#0001</v>
+        <v>obj_0043b#0001</v>
       </c>
       <c r="F64" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
@@ -7493,11 +7493,11 @@
       </c>
       <c r="L64" s="119">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M64" s="120">
-        <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42597</v>
+        <f>_xll.qlRateHelperPillarDate($E64,Trigger)</f>
+        <v>42642</v>
       </c>
       <c r="O64" s="138"/>
     </row>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="E65" s="117" t="str">
         <f>Swaps!L7</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_00436#0001</v>
       </c>
       <c r="F65" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G65" s="118">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>1.4500000000000001E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="H65" s="118">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -7539,11 +7539,11 @@
       </c>
       <c r="L65" s="119">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M65" s="120">
-        <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42688</v>
+        <f>_xll.qlRateHelperPillarDate($E65,Trigger)</f>
+        <v>42733</v>
       </c>
       <c r="O65" s="138"/>
     </row>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="E66" s="117" t="str">
         <f>Swaps!L8</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00431#0001</v>
       </c>
       <c r="F66" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
@@ -7585,11 +7585,11 @@
       </c>
       <c r="L66" s="119">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M66" s="120">
-        <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42779</v>
+        <f>_xll.qlRateHelperPillarDate($E66,Trigger)</f>
+        <v>42823</v>
       </c>
       <c r="O66" s="138"/>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="E67" s="117" t="str">
         <f>Swaps!L9</f>
-        <v>obj_00335#0001</v>
+        <v>obj_0042c#0001</v>
       </c>
       <c r="F67" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="G67" s="118">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.5249999999999999E-3</v>
       </c>
       <c r="H67" s="118">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -7631,11 +7631,11 @@
       </c>
       <c r="L67" s="119">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M67" s="120">
-        <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42870</v>
+        <f>_xll.qlRateHelperPillarDate($E67,Trigger)</f>
+        <v>42915</v>
       </c>
       <c r="O67" s="138"/>
     </row>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="E68" s="117" t="str">
         <f>Swaps!L10</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="F68" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="G68" s="118">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="H68" s="118">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -7677,11 +7677,11 @@
       </c>
       <c r="L68" s="119">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M68" s="120">
-        <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43234</v>
+        <f>_xll.qlRateHelperPillarDate($E68,Trigger)</f>
+        <v>43280</v>
       </c>
       <c r="O68" s="138"/>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="E69" s="117" t="str">
         <f>Swaps!L11</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00447#0001</v>
       </c>
       <c r="F69" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="G69" s="118">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>2.225E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="H69" s="118">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -7723,11 +7723,11 @@
       </c>
       <c r="L69" s="119">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M69" s="120">
-        <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43598</v>
+        <f>_xll.qlRateHelperPillarDate($E69,Trigger)</f>
+        <v>43644</v>
       </c>
       <c r="O69" s="138"/>
     </row>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="E70" s="117" t="str">
         <f>Swaps!L12</f>
-        <v>obj_00336#0001</v>
+        <v>obj_00443#0001</v>
       </c>
       <c r="F70" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="G70" s="118">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>2.8249999999999998E-3</v>
+        <v>2.9749999999999998E-3</v>
       </c>
       <c r="H70" s="118">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -7769,11 +7769,11 @@
       </c>
       <c r="L70" s="119">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M70" s="120">
-        <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43964</v>
+        <f>_xll.qlRateHelperPillarDate($E70,Trigger)</f>
+        <v>44011</v>
       </c>
       <c r="O70" s="138"/>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="E71" s="117" t="str">
         <f>Swaps!L13</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_0043f#0001</v>
       </c>
       <c r="F71" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="G71" s="118">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>3.4750000000000002E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H71" s="118">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -7815,11 +7815,11 @@
       </c>
       <c r="L71" s="119">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M71" s="120">
-        <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>44329</v>
+        <f>_xll.qlRateHelperPillarDate($E71,Trigger)</f>
+        <v>44376</v>
       </c>
       <c r="O71" s="138"/>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E72" s="117" t="str">
         <f>Swaps!L14</f>
-        <v>obj_0033c#0001</v>
+        <v>obj_0043a#0001</v>
       </c>
       <c r="F72" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="G72" s="118">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>4.1749999999999999E-3</v>
+        <v>4.4250000000000001E-3</v>
       </c>
       <c r="H72" s="118">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -7861,11 +7861,11 @@
       </c>
       <c r="L72" s="119">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M72" s="120">
-        <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>44694</v>
+        <f>_xll.qlRateHelperPillarDate($E72,Trigger)</f>
+        <v>44741</v>
       </c>
       <c r="O72" s="138"/>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="E73" s="117" t="str">
         <f>Swaps!L15</f>
-        <v>obj_00331#0001</v>
+        <v>obj_00435#0001</v>
       </c>
       <c r="F73" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="G73" s="118">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>4.8250000000000003E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="H73" s="118">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -7907,11 +7907,11 @@
       </c>
       <c r="L73" s="119">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M73" s="120">
-        <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>45061</v>
+        <f>_xll.qlRateHelperPillarDate($E73,Trigger)</f>
+        <v>45106</v>
       </c>
       <c r="O73" s="138"/>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E74" s="117" t="str">
         <f>Swaps!L16</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00430#0001</v>
       </c>
       <c r="F74" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="G74" s="118">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>5.45E-3</v>
+        <v>5.875E-3</v>
       </c>
       <c r="H74" s="118">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -7953,11 +7953,11 @@
       </c>
       <c r="L74" s="119">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M74" s="120">
-        <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>45425</v>
+        <f>_xll.qlRateHelperPillarDate($E74,Trigger)</f>
+        <v>45471</v>
       </c>
       <c r="O74" s="138"/>
     </row>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="E75" s="117" t="str">
         <f>Swaps!L17</f>
-        <v>obj_00339#0001</v>
+        <v>obj_0042b#0001</v>
       </c>
       <c r="F75" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="G75" s="118">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>6.1250000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="H75" s="118">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -7999,11 +7999,11 @@
       </c>
       <c r="L75" s="119">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M75" s="120">
-        <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>45790</v>
+        <f>_xll.qlRateHelperPillarDate($E75,Trigger)</f>
+        <v>45838</v>
       </c>
       <c r="O75" s="138"/>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="E76" s="117" t="str">
         <f>Swaps!L18</f>
-        <v>obj_0033a#0001</v>
+        <v>obj_00449#0001</v>
       </c>
       <c r="F76" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
@@ -8045,11 +8045,11 @@
       </c>
       <c r="L76" s="119">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M76" s="120">
-        <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>46155</v>
+        <f>_xll.qlRateHelperPillarDate($E76,Trigger)</f>
+        <v>46202</v>
       </c>
       <c r="O76" s="138"/>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="E77" s="117" t="str">
         <f>Swaps!L19</f>
-        <v>obj_0032e#0001</v>
+        <v>obj_00446#0001</v>
       </c>
       <c r="F77" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="G77" s="118">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>7.4500000000000009E-3</v>
+        <v>8.0249999999999991E-3</v>
       </c>
       <c r="H77" s="118">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="L77" s="119">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M77" s="120">
-        <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>46520</v>
+        <f>_xll.qlRateHelperPillarDate($E77,Trigger)</f>
+        <v>46567</v>
       </c>
       <c r="O77" s="138"/>
     </row>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="E78" s="117" t="str">
         <f>Swaps!L20</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_00442#0001</v>
       </c>
       <c r="F78" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
@@ -8137,11 +8137,11 @@
       </c>
       <c r="L78" s="119">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M78" s="120">
-        <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>46888</v>
+        <f>_xll.qlRateHelperPillarDate($E78,Trigger)</f>
+        <v>46933</v>
       </c>
       <c r="O78" s="138"/>
     </row>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="E79" s="117" t="str">
         <f>Swaps!L21</f>
-        <v>obj_00329#0001</v>
+        <v>obj_0043e#0001</v>
       </c>
       <c r="F79" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
@@ -8183,11 +8183,11 @@
       </c>
       <c r="L79" s="119">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M79" s="120">
-        <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>47252</v>
+        <f>_xll.qlRateHelperPillarDate($E79,Trigger)</f>
+        <v>47298</v>
       </c>
       <c r="O79" s="138"/>
     </row>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="E80" s="117" t="str">
         <f>Swaps!L22</f>
-        <v>obj_00341#0001</v>
+        <v>obj_00439#0001</v>
       </c>
       <c r="F80" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="G80" s="118">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>9.4750000000000008E-3</v>
+        <v>1.0175E-2</v>
       </c>
       <c r="H80" s="118">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8229,11 +8229,11 @@
       </c>
       <c r="L80" s="119">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M80" s="120">
-        <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47616</v>
+        <f>_xll.qlRateHelperPillarDate($E80,Trigger)</f>
+        <v>47662</v>
       </c>
       <c r="O80" s="138"/>
     </row>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E81" s="117" t="str">
         <f>Swaps!L23</f>
-        <v>obj_00334#0001</v>
+        <v>obj_00434#0001</v>
       </c>
       <c r="F81" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
@@ -8275,11 +8275,11 @@
       </c>
       <c r="L81" s="119">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M81" s="120">
-        <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>47981</v>
+        <f>_xll.qlRateHelperPillarDate($E81,Trigger)</f>
+        <v>48029</v>
       </c>
       <c r="O81" s="138"/>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E82" s="117" t="str">
         <f>Swaps!L24</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0042f#0001</v>
       </c>
       <c r="F82" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
@@ -8321,11 +8321,11 @@
       </c>
       <c r="L82" s="119">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M82" s="120">
-        <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>48347</v>
+        <f>_xll.qlRateHelperPillarDate($E82,Trigger)</f>
+        <v>48394</v>
       </c>
       <c r="O82" s="138"/>
     </row>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="E83" s="117" t="str">
         <f>Swaps!L25</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_0042a#0001</v>
       </c>
       <c r="F83" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="L83" s="119">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M83" s="120">
-        <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>48712</v>
+        <f>_xll.qlRateHelperPillarDate($E83,Trigger)</f>
+        <v>48759</v>
       </c>
       <c r="O83" s="138"/>
     </row>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="E84" s="117" t="str">
         <f>Swaps!L26</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_00448#0001</v>
       </c>
       <c r="F84" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
@@ -8413,11 +8413,11 @@
       </c>
       <c r="L84" s="119">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M84" s="120">
-        <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>49079</v>
+        <f>_xll.qlRateHelperPillarDate($E84,Trigger)</f>
+        <v>49124</v>
       </c>
       <c r="O84" s="138"/>
     </row>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="E85" s="117" t="str">
         <f>Swaps!L27</f>
-        <v>obj_00330#0001</v>
+        <v>obj_00445#0001</v>
       </c>
       <c r="F85" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="G85" s="118">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>1.2075000000000001E-2</v>
+        <v>1.2875000000000001E-2</v>
       </c>
       <c r="H85" s="118">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -8459,11 +8459,11 @@
       </c>
       <c r="L85" s="119">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M85" s="120">
-        <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>49443</v>
+        <f>_xll.qlRateHelperPillarDate($E85,Trigger)</f>
+        <v>49489</v>
       </c>
       <c r="O85" s="138"/>
     </row>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="E86" s="117" t="str">
         <f>Swaps!L28</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00441#0001</v>
       </c>
       <c r="F86" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
@@ -8505,11 +8505,11 @@
       </c>
       <c r="L86" s="119">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M86" s="120">
-        <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>49808</v>
+        <f>_xll.qlRateHelperPillarDate($E86,Trigger)</f>
+        <v>49856</v>
       </c>
       <c r="O86" s="138"/>
     </row>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="E87" s="117" t="str">
         <f>Swaps!L29</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_0043d#0001</v>
       </c>
       <c r="F87" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
@@ -8551,11 +8551,11 @@
       </c>
       <c r="L87" s="119">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M87" s="120">
-        <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>50173</v>
+        <f>_xll.qlRateHelperPillarDate($E87,Trigger)</f>
+        <v>50220</v>
       </c>
       <c r="O87" s="138"/>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="E88" s="117" t="str">
         <f>Swaps!L30</f>
-        <v>obj_00346#0001</v>
+        <v>obj_00438#0001</v>
       </c>
       <c r="F88" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
@@ -8597,11 +8597,11 @@
       </c>
       <c r="L88" s="119">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M88" s="120">
-        <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>50538</v>
+        <f>_xll.qlRateHelperPillarDate($E88,Trigger)</f>
+        <v>50585</v>
       </c>
       <c r="O88" s="138"/>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="E89" s="117" t="str">
         <f>Swaps!L31</f>
-        <v>obj_00338#0001</v>
+        <v>obj_00433#0001</v>
       </c>
       <c r="F89" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
@@ -8643,11 +8643,11 @@
       </c>
       <c r="L89" s="119">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M89" s="120">
-        <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>50903</v>
+        <f>_xll.qlRateHelperPillarDate($E89,Trigger)</f>
+        <v>50950</v>
       </c>
       <c r="O89" s="138"/>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="E90" s="117" t="str">
         <f>Swaps!L32</f>
-        <v>obj_00328#0001</v>
+        <v>obj_0042e#0001</v>
       </c>
       <c r="F90" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="G90" s="118">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>1.3525000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="H90" s="118">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -8689,11 +8689,11 @@
       </c>
       <c r="L90" s="119">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M90" s="120">
-        <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>51270</v>
+        <f>_xll.qlRateHelperPillarDate($E90,Trigger)</f>
+        <v>51316</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="E91" s="117" t="str">
         <f>Swaps!L33</f>
-        <v>obj_00343#0001</v>
+        <v>obj_00429#0001</v>
       </c>
       <c r="F91" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
@@ -8734,11 +8734,11 @@
       </c>
       <c r="L91" s="119">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M91" s="120">
-        <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>51634</v>
+        <f>_xll.qlRateHelperPillarDate($E91,Trigger)</f>
+        <v>51680</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E92" s="117" t="str">
         <f>Swaps!L34</f>
-        <v>obj_00344#0001</v>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="F92" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
@@ -8779,11 +8779,11 @@
       </c>
       <c r="L92" s="119">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M92" s="120">
-        <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>51999</v>
+        <f>_xll.qlRateHelperPillarDate($E92,Trigger)</f>
+        <v>52047</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E93" s="117" t="str">
         <f>Swaps!L35</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_00444#0001</v>
       </c>
       <c r="F93" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
@@ -8824,11 +8824,11 @@
       </c>
       <c r="L93" s="119">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M93" s="120">
-        <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>52364</v>
+        <f>_xll.qlRateHelperPillarDate($E93,Trigger)</f>
+        <v>52411</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="E94" s="117" t="str">
         <f>Swaps!L36</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00440#0001</v>
       </c>
       <c r="F94" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
@@ -8869,11 +8869,11 @@
       </c>
       <c r="L94" s="119">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M94" s="120">
-        <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>52730</v>
+        <f>_xll.qlRateHelperPillarDate($E94,Trigger)</f>
+        <v>52777</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E95" s="117" t="str">
         <f>Swaps!L37</f>
-        <v>obj_00333#0001</v>
+        <v>obj_0043c#0001</v>
       </c>
       <c r="F95" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="G95" s="118">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>1.4300000000000002E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="H95" s="118">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -8914,11 +8914,11 @@
       </c>
       <c r="L95" s="119">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M95" s="120">
-        <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>53097</v>
+        <f>_xll.qlRateHelperPillarDate($E95,Trigger)</f>
+        <v>53142</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E96" s="117" t="str">
         <f>Swaps!L38</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_00437#0001</v>
       </c>
       <c r="F96" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
@@ -8959,11 +8959,11 @@
       </c>
       <c r="L96" s="119">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M96" s="120">
-        <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>54921</v>
+        <f>_xll.qlRateHelperPillarDate($E96,Trigger)</f>
+        <v>54968</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="E97" s="117" t="str">
         <f>Swaps!L39</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_00432#0001</v>
       </c>
       <c r="F97" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
@@ -9004,11 +9004,11 @@
       </c>
       <c r="L97" s="119">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M97" s="120">
-        <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>56747</v>
+        <f>_xll.qlRateHelperPillarDate($E97,Trigger)</f>
+        <v>56794</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E98" s="117" t="str">
         <f>Swaps!L40</f>
-        <v>obj_0032b#0001</v>
+        <v>obj_0042d#0001</v>
       </c>
       <c r="F98" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
@@ -9049,11 +9049,11 @@
       </c>
       <c r="L98" s="119">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M98" s="120">
-        <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>60400</v>
+        <f>_xll.qlRateHelperPillarDate($E98,Trigger)</f>
+        <v>60447</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="E99" s="117" t="str">
         <f>Swaps!L41</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00428#0001</v>
       </c>
       <c r="F99" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
@@ -9094,11 +9094,11 @@
       </c>
       <c r="L99" s="125">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="M99" s="126">
-        <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>64052</v>
+        <f>_xll.qlRateHelperPillarDate($E99,Trigger)</f>
+        <v>64098</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -9122,7 +9122,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J1" s="75">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.6344655155437602E-4</v>
+        <v>3.8385692042493496E-4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D2" s="76" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0031c</v>
+        <v>obj_0031b</v>
       </c>
       <c r="E2" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="F2" s="77">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.571E-4</v>
+        <v>3.7860000000000004E-4</v>
       </c>
       <c r="G2" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9191,14 +9191,14 @@
       </c>
       <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I2" s="87">
-        <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42144</v>
+        <f>_xll.qlRateHelperPillarDate($D2)</f>
+        <v>42191</v>
       </c>
       <c r="J2" s="75">
-        <v>4.6344655155437602E-4</v>
+        <v>3.8385692042493496E-4</v>
       </c>
       <c r="K2" s="78"/>
     </row>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="76" t="str">
-        <v>obj_00315</v>
+        <v>obj_0031a</v>
       </c>
       <c r="E3" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="F3" s="77">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>6.8570000000000002E-4</v>
+        <v>5.9290000000000005E-4</v>
       </c>
       <c r="G3" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9226,14 +9226,14 @@
       </c>
       <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I3" s="87">
-        <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42170</v>
+        <f>_xll.qlRateHelperPillarDate($D3)</f>
+        <v>42214</v>
       </c>
       <c r="J3" s="75">
-        <v>6.8195860768109672E-4</v>
+        <v>5.7555952491402176E-4</v>
       </c>
       <c r="K3" s="78"/>
     </row>
@@ -9245,7 +9245,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="76" t="str">
-        <v>obj_0031a</v>
+        <v>obj_00318</v>
       </c>
       <c r="E4" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="F4" s="77">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>8.7140000000000004E-4</v>
+        <v>8.8570000000000012E-4</v>
       </c>
       <c r="G4" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9261,14 +9261,14 @@
       </c>
       <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I4" s="87">
-        <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42198</v>
+        <f>_xll.qlRateHelperPillarDate($D4)</f>
+        <v>42244</v>
       </c>
       <c r="J4" s="75">
-        <v>8.7010451006673832E-4</v>
+        <v>8.6580522823798101E-4</v>
       </c>
       <c r="K4" s="78"/>
     </row>
@@ -9280,7 +9280,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="76" t="str">
-        <v>obj_0031f</v>
+        <v>obj_00316</v>
       </c>
       <c r="E5" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="F5" s="77">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.0070999999999999E-3</v>
+        <v>9.5710000000000001E-4</v>
       </c>
       <c r="G5" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9296,14 +9296,14 @@
       </c>
       <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I5" s="87">
-        <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42229</v>
+        <f>_xll.qlRateHelperPillarDate($D5)</f>
+        <v>42276</v>
       </c>
       <c r="J5" s="75">
-        <v>1.0090942181017733E-3</v>
+        <v>9.4584033797422183E-4</v>
       </c>
       <c r="K5" s="78"/>
     </row>
@@ -9316,7 +9316,7 @@
         <v/>
       </c>
       <c r="D6" s="76" t="str">
-        <v>obj_0031b</v>
+        <v>obj_00319</v>
       </c>
       <c r="E6" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="F6" s="77">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.3786E-3</v>
+        <v>1.3928999999999999E-3</v>
       </c>
       <c r="G6" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9332,20 +9332,20 @@
       </c>
       <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I6" s="87">
-        <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42321</v>
+        <f>_xll.qlRateHelperPillarDate($D6)</f>
+        <v>42367</v>
       </c>
       <c r="J6" s="75">
-        <v>1.3872140634339448E-3</v>
+        <v>1.3897591593925707E-3</v>
       </c>
       <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="76" t="str">
-        <v>obj_00332</v>
+        <v>obj_00427</v>
       </c>
       <c r="E7" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -9361,20 +9361,20 @@
       </c>
       <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I7" s="87">
-        <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42503</v>
+        <f>_xll.qlRateHelperPillarDate($D7)</f>
+        <v>42550</v>
       </c>
       <c r="J7" s="75">
-        <v>1.3944223718530713E-3</v>
+        <v>1.3885246177516403E-3</v>
       </c>
       <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="76" t="str">
-        <v>obj_0032f</v>
+        <v>obj_00436</v>
       </c>
       <c r="E8" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="F8" s="77">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.4500000000000001E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="G8" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9390,20 +9390,20 @@
       </c>
       <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I8" s="87">
-        <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42688</v>
+        <f>_xll.qlRateHelperPillarDate($D8)</f>
+        <v>42733</v>
       </c>
       <c r="J8" s="75">
-        <v>1.4459417727411363E-3</v>
+        <v>1.4169788340554473E-3</v>
       </c>
       <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="76" t="str">
-        <v>obj_0032d</v>
+        <v>obj_0044a</v>
       </c>
       <c r="E9" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="F9" s="77">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.8E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="G9" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9419,20 +9419,20 @@
       </c>
       <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I9" s="87">
-        <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>43234</v>
+        <f>_xll.qlRateHelperPillarDate($D9)</f>
+        <v>43280</v>
       </c>
       <c r="J9" s="75">
-        <v>1.7973261684684206E-3</v>
+        <v>1.8445025071476722E-3</v>
       </c>
       <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="76" t="str">
-        <v>obj_00349</v>
+        <v>obj_00447</v>
       </c>
       <c r="E10" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="F10" s="77">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.225E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="G10" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9448,20 +9448,20 @@
       </c>
       <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I10" s="87">
-        <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>43598</v>
+        <f>_xll.qlRateHelperPillarDate($D10)</f>
+        <v>43644</v>
       </c>
       <c r="J10" s="75">
-        <v>2.2233356576761608E-3</v>
+        <v>2.3457086377196698E-3</v>
       </c>
       <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="76" t="str">
-        <v>obj_00336</v>
+        <v>obj_00443</v>
       </c>
       <c r="E11" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F11" s="77">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.8249999999999998E-3</v>
+        <v>2.9749999999999998E-3</v>
       </c>
       <c r="G11" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9477,20 +9477,20 @@
       </c>
       <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I11" s="87">
-        <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43964</v>
+        <f>_xll.qlRateHelperPillarDate($D11)</f>
+        <v>44011</v>
       </c>
       <c r="J11" s="75">
-        <v>2.8258814743172826E-3</v>
+        <v>2.9733924564951377E-3</v>
       </c>
       <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="76" t="str">
-        <v>obj_0034a</v>
+        <v>obj_0043f</v>
       </c>
       <c r="E12" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="F12" s="77">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.4750000000000002E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G12" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9506,20 +9506,20 @@
       </c>
       <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I12" s="87">
-        <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>44329</v>
+        <f>_xll.qlRateHelperPillarDate($D12)</f>
+        <v>44376</v>
       </c>
       <c r="J12" s="75">
-        <v>3.4805793646068457E-3</v>
+        <v>3.7038571809550735E-3</v>
       </c>
       <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="76" t="str">
-        <v>obj_0033c</v>
+        <v>obj_0043a</v>
       </c>
       <c r="E13" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="F13" s="77">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>4.1749999999999999E-3</v>
+        <v>4.4250000000000001E-3</v>
       </c>
       <c r="G13" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9535,20 +9535,20 @@
       </c>
       <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I13" s="87">
-        <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>44694</v>
+        <f>_xll.qlRateHelperPillarDate($D13)</f>
+        <v>44741</v>
       </c>
       <c r="J13" s="75">
-        <v>4.1883696694039506E-3</v>
+        <v>4.4372729577058833E-3</v>
       </c>
       <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="76" t="str">
-        <v>obj_00331</v>
+        <v>obj_00435</v>
       </c>
       <c r="E14" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F14" s="77">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.8250000000000003E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="G14" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9564,20 +9564,20 @@
       </c>
       <c r="H14" s="86">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I14" s="87">
-        <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>45061</v>
+        <f>_xll.qlRateHelperPillarDate($D14)</f>
+        <v>45106</v>
       </c>
       <c r="J14" s="75">
-        <v>4.848285804512271E-3</v>
+        <v>5.1741700785790292E-3</v>
       </c>
       <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="76" t="str">
-        <v>obj_00347</v>
+        <v>obj_00430</v>
       </c>
       <c r="E15" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="F15" s="77">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.45E-3</v>
+        <v>5.875E-3</v>
       </c>
       <c r="G15" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9593,20 +9593,20 @@
       </c>
       <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I15" s="87">
-        <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>45425</v>
+        <f>_xll.qlRateHelperPillarDate($D15)</f>
+        <v>45471</v>
       </c>
       <c r="J15" s="75">
-        <v>5.4858227022552847E-3</v>
+        <v>5.9151229023841978E-3</v>
       </c>
       <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="76" t="str">
-        <v>obj_00339</v>
+        <v>obj_0042b</v>
       </c>
       <c r="E16" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="F16" s="77">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>6.1250000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="G16" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9622,19 +9622,19 @@
       </c>
       <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I16" s="87">
-        <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>45790</v>
+        <f>_xll.qlRateHelperPillarDate($D16)</f>
+        <v>45838</v>
       </c>
       <c r="J16" s="75">
-        <v>6.1786368880252015E-3</v>
+        <v>6.6607045352945534E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="76" t="str">
-        <v>obj_0032e</v>
+        <v>obj_00446</v>
       </c>
       <c r="E17" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="F17" s="77">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.4500000000000009E-3</v>
+        <v>8.0249999999999991E-3</v>
       </c>
       <c r="G17" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9650,19 +9650,19 @@
       </c>
       <c r="H17" s="86">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I17" s="87">
-        <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>46520</v>
+        <f>_xll.qlRateHelperPillarDate($D17)</f>
+        <v>46567</v>
       </c>
       <c r="J17" s="75">
-        <v>7.5522442443124605E-3</v>
+        <v>8.1422187407210883E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="76" t="str">
-        <v>obj_00341</v>
+        <v>obj_00439</v>
       </c>
       <c r="E18" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="F18" s="77">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.4750000000000008E-3</v>
+        <v>1.0175E-2</v>
       </c>
       <c r="G18" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9678,19 +9678,19 @@
       </c>
       <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I18" s="87">
-        <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>47616</v>
+        <f>_xll.qlRateHelperPillarDate($D18)</f>
+        <v>47662</v>
       </c>
       <c r="J18" s="75">
-        <v>9.6967225932396567E-3</v>
+        <v>1.0428868611432116E-2</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="76" t="str">
-        <v>obj_00330</v>
+        <v>obj_00445</v>
       </c>
       <c r="E19" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="F19" s="77">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.2075000000000001E-2</v>
+        <v>1.2875000000000001E-2</v>
       </c>
       <c r="G19" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9706,19 +9706,19 @@
       </c>
       <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I19" s="87">
-        <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>49443</v>
+        <f>_xll.qlRateHelperPillarDate($D19)</f>
+        <v>49489</v>
       </c>
       <c r="J19" s="75">
-        <v>1.2546101411583289E-2</v>
+        <v>1.3405167214494506E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="76" t="str">
-        <v>obj_00328</v>
+        <v>obj_0042e</v>
       </c>
       <c r="E20" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="F20" s="77">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.3525000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G20" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9734,19 +9734,19 @@
       </c>
       <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I20" s="87">
-        <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>51270</v>
+        <f>_xll.qlRateHelperPillarDate($D20)</f>
+        <v>51316</v>
       </c>
       <c r="J20" s="75">
-        <v>1.417382518134426E-2</v>
+        <v>1.5131279191839689E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="76" t="str">
-        <v>obj_00333</v>
+        <v>obj_0043c</v>
       </c>
       <c r="E21" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="F21" s="77">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.4300000000000002E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G21" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -9762,14 +9762,14 @@
       </c>
       <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42137</v>
+        <v>42184</v>
       </c>
       <c r="I21" s="87">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>53097</v>
+        <f>_xll.qlRateHelperPillarDate($D21)</f>
+        <v>53142</v>
       </c>
       <c r="J21" s="75">
-        <v>1.5037418321779013E-2</v>
+        <v>1.6027803043986745E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
+        <f>_xll.qlRateHelperPillarDate($D22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J22" s="75" t="e">
@@ -9821,7 +9821,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
+        <f>_xll.qlRateHelperPillarDate($D23)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="75" t="e">
@@ -9849,7 +9849,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
+        <f>_xll.qlRateHelperPillarDate($D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="75" t="e">
@@ -9877,7 +9877,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I25" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
+        <f>_xll.qlRateHelperPillarDate($D25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J25" s="75" t="e">
@@ -9905,7 +9905,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I26" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
+        <f>_xll.qlRateHelperPillarDate($D26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="75" t="e">
@@ -9933,7 +9933,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
+        <f>_xll.qlRateHelperPillarDate($D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="75" t="e">
@@ -9961,7 +9961,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
+        <f>_xll.qlRateHelperPillarDate($D28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="75" t="e">
@@ -9989,7 +9989,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
+        <f>_xll.qlRateHelperPillarDate($D29)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="75" t="e">
@@ -10017,7 +10017,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
+        <f>_xll.qlRateHelperPillarDate($D30)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="75" t="e">
@@ -10045,7 +10045,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
+        <f>_xll.qlRateHelperPillarDate($D31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="75" t="e">
@@ -10073,7 +10073,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
+        <f>_xll.qlRateHelperPillarDate($D32)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="75" t="e">
@@ -10101,7 +10101,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
+        <f>_xll.qlRateHelperPillarDate($D33)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="75" t="e">
@@ -10129,7 +10129,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
+        <f>_xll.qlRateHelperPillarDate($D34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="75" t="e">
@@ -10157,7 +10157,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
+        <f>_xll.qlRateHelperPillarDate($D35)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="75" t="e">
@@ -10185,7 +10185,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
+        <f>_xll.qlRateHelperPillarDate($D36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="75" t="e">
@@ -10213,7 +10213,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
+        <f>_xll.qlRateHelperPillarDate($D37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="75" t="e">
@@ -10241,7 +10241,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
+        <f>_xll.qlRateHelperPillarDate($D38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="75" t="e">
@@ -10269,7 +10269,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
+        <f>_xll.qlRateHelperPillarDate($D39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="75" t="e">
@@ -10297,7 +10297,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
+        <f>_xll.qlRateHelperPillarDate($D40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="75" t="e">
@@ -10325,7 +10325,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
+        <f>_xll.qlRateHelperPillarDate($D41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="75" t="e">
@@ -10353,7 +10353,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
+        <f>_xll.qlRateHelperPillarDate($D42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="75" t="e">
@@ -10381,7 +10381,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
+        <f>_xll.qlRateHelperPillarDate($D43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="75" t="e">
@@ -10409,7 +10409,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
+        <f>_xll.qlRateHelperPillarDate($D44)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="75" t="e">
@@ -10437,7 +10437,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
+        <f>_xll.qlRateHelperPillarDate($D45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="75" t="e">
@@ -10465,7 +10465,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
+        <f>_xll.qlRateHelperPillarDate($D46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="75" t="e">
@@ -10493,7 +10493,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
+        <f>_xll.qlRateHelperPillarDate($D47)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="75" t="e">
@@ -10521,7 +10521,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
+        <f>_xll.qlRateHelperPillarDate($D48)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="75" t="e">
@@ -10549,7 +10549,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
+        <f>_xll.qlRateHelperPillarDate($D49)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="75" t="e">
@@ -10577,7 +10577,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
+        <f>_xll.qlRateHelperPillarDate($D50)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="75" t="e">
@@ -10605,7 +10605,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
+        <f>_xll.qlRateHelperPillarDate($D51)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="75" t="e">
@@ -10633,7 +10633,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
+        <f>_xll.qlRateHelperPillarDate($D52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="75" t="e">
@@ -10661,7 +10661,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
+        <f>_xll.qlRateHelperPillarDate($D53)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="75" t="e">
@@ -10689,7 +10689,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
+        <f>_xll.qlRateHelperPillarDate($D54)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="75" t="e">
@@ -10717,7 +10717,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
+        <f>_xll.qlRateHelperPillarDate($D55)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="75" t="e">
@@ -10745,7 +10745,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
+        <f>_xll.qlRateHelperPillarDate($D56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="75" t="e">
@@ -10773,7 +10773,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
+        <f>_xll.qlRateHelperPillarDate($D57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="75" t="e">
@@ -10801,7 +10801,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
+        <f>_xll.qlRateHelperPillarDate($D58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="75" t="e">
@@ -10829,7 +10829,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
+        <f>_xll.qlRateHelperPillarDate($D59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="75" t="e">
@@ -10857,7 +10857,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
+        <f>_xll.qlRateHelperPillarDate($D60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="75" t="e">
@@ -10885,7 +10885,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
+        <f>_xll.qlRateHelperPillarDate($D61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="75" t="e">
@@ -10913,7 +10913,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
+        <f>_xll.qlRateHelperPillarDate($D62)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="75" t="e">
@@ -10941,7 +10941,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
+        <f>_xll.qlRateHelperPillarDate($D63)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="75" t="e">
@@ -10969,7 +10969,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
+        <f>_xll.qlRateHelperPillarDate($D64)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="75" t="e">
@@ -10997,7 +10997,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
+        <f>_xll.qlRateHelperPillarDate($D65)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="75" t="e">
@@ -11025,7 +11025,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
+        <f>_xll.qlRateHelperPillarDate($D66)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="75" t="e">
@@ -11053,7 +11053,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
+        <f>_xll.qlRateHelperPillarDate($D67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="75" t="e">
@@ -11081,7 +11081,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
+        <f>_xll.qlRateHelperPillarDate($D68)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="75" t="e">
@@ -11109,7 +11109,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
+        <f>_xll.qlRateHelperPillarDate($D69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="75" t="e">
@@ -11137,7 +11137,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
+        <f>_xll.qlRateHelperPillarDate($D70)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="75" t="e">
@@ -11165,7 +11165,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
+        <f>_xll.qlRateHelperPillarDate($D71)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="75" t="e">
@@ -11193,7 +11193,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
+        <f>_xll.qlRateHelperPillarDate($D72)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="75" t="e">
@@ -11221,7 +11221,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
+        <f>_xll.qlRateHelperPillarDate($D73)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="75" t="e">
@@ -11249,7 +11249,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
+        <f>_xll.qlRateHelperPillarDate($D74)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="75" t="e">
@@ -11277,7 +11277,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
+        <f>_xll.qlRateHelperPillarDate($D75)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="75" t="e">
@@ -11305,7 +11305,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
+        <f>_xll.qlRateHelperPillarDate($D76)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="75" t="e">
@@ -11333,7 +11333,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
+        <f>_xll.qlRateHelperPillarDate($D77)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="75" t="e">
@@ -11361,7 +11361,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
+        <f>_xll.qlRateHelperPillarDate($D78)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="75" t="e">
@@ -11389,7 +11389,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
+        <f>_xll.qlRateHelperPillarDate($D79)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="75" t="e">
@@ -11417,7 +11417,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
+        <f>_xll.qlRateHelperPillarDate($D80)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="75" t="e">
@@ -11445,7 +11445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
+        <f>_xll.qlRateHelperPillarDate($D81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="75" t="e">
@@ -11473,7 +11473,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
+        <f>_xll.qlRateHelperPillarDate($D82)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="75" t="e">
@@ -11501,7 +11501,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
+        <f>_xll.qlRateHelperPillarDate($D83)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="75" t="e">
@@ -11529,7 +11529,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
+        <f>_xll.qlRateHelperPillarDate($D84)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="75" t="e">
@@ -11557,7 +11557,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
+        <f>_xll.qlRateHelperPillarDate($D85)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="75" t="e">
@@ -11585,7 +11585,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
+        <f>_xll.qlRateHelperPillarDate($D86)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="75" t="e">
@@ -11613,7 +11613,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
+        <f>_xll.qlRateHelperPillarDate($D87)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="75" t="e">
@@ -11641,7 +11641,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
+        <f>_xll.qlRateHelperPillarDate($D88)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="75" t="e">
@@ -11669,7 +11669,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
+        <f>_xll.qlRateHelperPillarDate($D89)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="75" t="e">
@@ -11697,7 +11697,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
+        <f>_xll.qlRateHelperPillarDate($D90)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="75" t="e">
@@ -11725,7 +11725,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
+        <f>_xll.qlRateHelperPillarDate($D91)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="75" t="e">
@@ -11753,7 +11753,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
+        <f>_xll.qlRateHelperPillarDate($D92)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="75" t="e">
@@ -11781,7 +11781,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
+        <f>_xll.qlRateHelperPillarDate($D93)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="75" t="e">
@@ -11809,7 +11809,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
+        <f>_xll.qlRateHelperPillarDate($D94)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="75" t="e">
@@ -11837,7 +11837,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
+        <f>_xll.qlRateHelperPillarDate($D95)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="75" t="e">
@@ -11865,7 +11865,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
+        <f>_xll.qlRateHelperPillarDate($D96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="75" t="e">
@@ -11893,7 +11893,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
+        <f>_xll.qlRateHelperPillarDate($D97)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="75" t="e">
@@ -11921,7 +11921,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
+        <f>_xll.qlRateHelperPillarDate($D98)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="75" t="e">
@@ -11949,7 +11949,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
+        <f>_xll.qlRateHelperPillarDate($D99)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="75" t="e">
@@ -11977,7 +11977,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
+        <f>_xll.qlRateHelperPillarDate($D100)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="75" t="e">
@@ -12005,7 +12005,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
+        <f>_xll.qlRateHelperPillarDate($D101)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="75" t="e">
@@ -12033,7 +12033,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
+        <f>_xll.qlRateHelperPillarDate($D102)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="75" t="e">
@@ -12061,7 +12061,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
+        <f>_xll.qlRateHelperPillarDate($D103)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="75" t="e">
@@ -12089,7 +12089,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
+        <f>_xll.qlRateHelperPillarDate($D104)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="75" t="e">
@@ -12117,7 +12117,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
+        <f>_xll.qlRateHelperPillarDate($D105)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="75" t="e">
@@ -12145,7 +12145,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
+        <f>_xll.qlRateHelperPillarDate($D106)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="75" t="e">
@@ -12173,7 +12173,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
+        <f>_xll.qlRateHelperPillarDate($D107)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="75" t="e">
@@ -12201,7 +12201,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
+        <f>_xll.qlRateHelperPillarDate($D108)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="75" t="e">
@@ -12229,7 +12229,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
+        <f>_xll.qlRateHelperPillarDate($D109)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="75" t="e">
@@ -12257,7 +12257,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
+        <f>_xll.qlRateHelperPillarDate($D110)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="75" t="e">
@@ -12285,7 +12285,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
+        <f>_xll.qlRateHelperPillarDate($D111)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="75" t="e">
@@ -12313,7 +12313,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
+        <f>_xll.qlRateHelperPillarDate($D112)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="75" t="e">
@@ -12341,7 +12341,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
+        <f>_xll.qlRateHelperPillarDate($D113)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="75" t="e">
@@ -12369,7 +12369,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
+        <f>_xll.qlRateHelperPillarDate($D114)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="75" t="e">
@@ -12397,7 +12397,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
+        <f>_xll.qlRateHelperPillarDate($D115)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="75" t="e">
@@ -12425,7 +12425,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
+        <f>_xll.qlRateHelperPillarDate($D116)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="75" t="e">
@@ -12453,7 +12453,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
+        <f>_xll.qlRateHelperPillarDate($D117)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="75" t="e">
@@ -12481,7 +12481,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
+        <f>_xll.qlRateHelperPillarDate($D118)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="75" t="e">
@@ -12509,7 +12509,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
+        <f>_xll.qlRateHelperPillarDate($D119)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="75" t="e">
@@ -12537,7 +12537,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
+        <f>_xll.qlRateHelperPillarDate($D120)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="75" t="e">
@@ -12565,7 +12565,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
+        <f>_xll.qlRateHelperPillarDate($D121)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="75" t="e">
@@ -12593,7 +12593,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
+        <f>_xll.qlRateHelperPillarDate($D122)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="75" t="e">
@@ -12621,7 +12621,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
+        <f>_xll.qlRateHelperPillarDate($D123)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="75" t="e">
@@ -12649,7 +12649,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
+        <f>_xll.qlRateHelperPillarDate($D124)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="75" t="e">
@@ -12677,7 +12677,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="87" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
+        <f>_xll.qlRateHelperPillarDate($D125)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="75" t="e">
@@ -12705,7 +12705,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="89" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
+        <f>_xll.qlRateHelperPillarDate($D126)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="75" t="e">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00317#0001</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0001</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0001</v>
+        <v>obj_00311#0001</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030c#0001</v>
+        <v>obj_00308#0001</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0001</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030e#0001</v>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12932,7 +12932,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030f#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00313#0001</v>
+        <v>obj_00307#0001</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0001</v>
+        <v>obj_00306#0001</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0001</v>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031b#0001</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00314#0001</v>
+        <v>obj_00309#0001</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00307#0001</v>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030a#0001</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00308#0001</v>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0001</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030d#0001</v>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13170,9 +13170,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13252,8 +13250,8 @@
         <v>JPY1x4F_Quote</v>
       </c>
       <c r="G3" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0001</v>
+        <f>_xll.qlFraRateHelper(,F3,B3,E3,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0041c#0001</v>
       </c>
       <c r="H3" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
@@ -13283,8 +13281,8 @@
         <v>JPY2x5F_Quote</v>
       </c>
       <c r="G4" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00324#0001</v>
+        <f>_xll.qlFraRateHelper(,F4,B4,E4,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00420#0001</v>
       </c>
       <c r="H4" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
@@ -13314,8 +13312,8 @@
         <v>JPY3x6F_Quote</v>
       </c>
       <c r="G5" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00318#0001</v>
+        <f>_xll.qlFraRateHelper(,F5,B5,E5,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0041e#0001</v>
       </c>
       <c r="H5" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -13345,8 +13343,8 @@
         <v>JPY4x7F_Quote</v>
       </c>
       <c r="G6" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00325#0001</v>
+        <f>_xll.qlFraRateHelper(,F6,B6,E6,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00426#0001</v>
       </c>
       <c r="H6" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
@@ -13376,8 +13374,8 @@
         <v>JPY5x8F_Quote</v>
       </c>
       <c r="G7" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00321#0001</v>
+        <f>_xll.qlFraRateHelper(,F7,B7,E7,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00425#0001</v>
       </c>
       <c r="H7" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -13407,8 +13405,8 @@
         <v>JPY6x9F_Quote</v>
       </c>
       <c r="G8" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0001</v>
+        <f>_xll.qlFraRateHelper(,F8,B8,E8,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00424#0001</v>
       </c>
       <c r="H8" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -13438,8 +13436,8 @@
         <v>JPY9x12F_Quote</v>
       </c>
       <c r="G9" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0001</v>
+        <f>_xll.qlFraRateHelper(,F9,B9,E9,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00423#0001</v>
       </c>
       <c r="H9" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -13469,8 +13467,8 @@
         <v>JPY12x15F_Quote</v>
       </c>
       <c r="G10" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00326#0001</v>
+        <f>_xll.qlFraRateHelper(,F10,B10,E10,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00422#0001</v>
       </c>
       <c r="H10" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -13500,8 +13498,8 @@
         <v>JPY15x18F_Quote</v>
       </c>
       <c r="G11" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00319#0001</v>
+        <f>_xll.qlFraRateHelper(,F11,B11,E11,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00421#0001</v>
       </c>
       <c r="H11" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -13531,8 +13529,8 @@
         <v>JPY18x21F_Quote</v>
       </c>
       <c r="G12" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00322#0001</v>
+        <f>_xll.qlFraRateHelper(,F12,B12,E12,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0041f#0001</v>
       </c>
       <c r="H12" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -13562,8 +13560,8 @@
         <v>JPY21x24F_Quote</v>
       </c>
       <c r="G13" s="186" t="str">
-        <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00320#0001</v>
+        <f>_xll.qlFraRateHelper(,F13,B13,E13,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0041d#0001</v>
       </c>
       <c r="H13" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -13689,11 +13687,11 @@
       </c>
       <c r="E3" s="156" t="str">
         <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="F3" s="203">
         <f>_xll.qlIMMdate(E3)</f>
-        <v>42144</v>
+        <v>42200</v>
       </c>
       <c r="G3" s="156" t="str">
         <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -13701,15 +13699,15 @@
       </c>
       <c r="H3" s="157" t="str">
         <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="I3" s="157" t="str">
         <f t="shared" ref="I3:I34" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MK5ConvAdj_Quote</v>
+        <v>JPYFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="J3" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H3,$C3,$F3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="K3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -13730,11 +13728,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="160" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="F4" s="203">
         <f>_xll.qlIMMdate(E4)</f>
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="G4" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13742,15 +13740,15 @@
       </c>
       <c r="H4" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="I4" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM5ConvAdj_Quote</v>
+        <v>JPYFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="J4" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H4,$C4,$F4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="K4" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -13771,11 +13769,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="160" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="F5" s="203">
         <f>_xll.qlIMMdate(E5)</f>
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="G5" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13783,15 +13781,15 @@
       </c>
       <c r="H5" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="I5" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MN5ConvAdj_Quote</v>
+        <v>JPYFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="J5" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H5,$C5,$F5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="K5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -13812,11 +13810,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="160" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="F6" s="203">
         <f>_xll.qlIMMdate(E6)</f>
-        <v>42235</v>
+        <v>42298</v>
       </c>
       <c r="G6" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13824,15 +13822,15 @@
       </c>
       <c r="H6" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="I6" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MQ5ConvAdj_Quote</v>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J6" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H6,$C6,$F6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="K6" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -13853,11 +13851,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="160" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="F7" s="203">
         <f>_xll.qlIMMdate(E7)</f>
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="G7" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13865,15 +13863,15 @@
       </c>
       <c r="H7" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="I7" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
+        <v>JPYFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J7" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H7,$C7,$F7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="K7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -13894,11 +13892,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="160" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="F8" s="203">
         <f>_xll.qlIMMdate(E8)</f>
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="G8" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13906,15 +13904,15 @@
       </c>
       <c r="H8" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="I8" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J8" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H8,$C8,$F8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="K8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -13935,11 +13933,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="160" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="F9" s="203">
         <f>_xll.qlIMMdate(E9)</f>
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="G9" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13947,15 +13945,15 @@
       </c>
       <c r="H9" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MX5_Quote</v>
+        <v>JPYFUT3MF6_Quote</v>
       </c>
       <c r="I9" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MX5ConvAdj_Quote</v>
+        <v>JPYFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J9" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H9,$C9,$F9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="K9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -13976,11 +13974,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="160" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="F10" s="203">
         <f>_xll.qlIMMdate(E10)</f>
-        <v>42354</v>
+        <v>42417</v>
       </c>
       <c r="G10" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13988,15 +13986,15 @@
       </c>
       <c r="H10" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MG6_Quote</v>
       </c>
       <c r="I10" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J10" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H10,$C10,$F10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="K10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -14017,11 +14015,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="160" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="F11" s="203">
         <f>_xll.qlIMMdate(E11)</f>
-        <v>42389</v>
+        <v>42445</v>
       </c>
       <c r="G11" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14029,15 +14027,15 @@
       </c>
       <c r="H11" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MF6_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="I11" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MF6ConvAdj_Quote</v>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J11" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H11,$C11,$F11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="K11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -14058,11 +14056,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="160" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="F12" s="203">
         <f>_xll.qlIMMdate(E12)</f>
-        <v>42417</v>
+        <v>42480</v>
       </c>
       <c r="G12" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14070,15 +14068,15 @@
       </c>
       <c r="H12" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MG6_Quote</v>
+        <v>JPYFUT3MJ6_Quote</v>
       </c>
       <c r="I12" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MG6ConvAdj_Quote</v>
+        <v>JPYFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="J12" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H12,$C12,$F12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="K12" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -14099,11 +14097,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="160" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="F13" s="203">
         <f>_xll.qlIMMdate(E13)</f>
-        <v>42445</v>
+        <v>42508</v>
       </c>
       <c r="G13" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14111,15 +14109,15 @@
       </c>
       <c r="H13" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MK6_Quote</v>
       </c>
       <c r="I13" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <v>JPYFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="J13" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H13,$C13,$F13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="K13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -14140,11 +14138,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="160" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="F14" s="203">
         <f>_xll.qlIMMdate(E14)</f>
-        <v>42480</v>
+        <v>42536</v>
       </c>
       <c r="G14" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14152,15 +14150,15 @@
       </c>
       <c r="H14" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MJ6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="I14" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MJ6ConvAdj_Quote</v>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J14" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H14,$C14,$F14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="K14" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -14181,11 +14179,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="160" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="F15" s="203">
         <f>_xll.qlIMMdate(E15)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="G15" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14193,15 +14191,15 @@
       </c>
       <c r="H15" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="I15" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J15" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H15,$C15,$F15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="K15" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -14222,11 +14220,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="160" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="F16" s="203">
         <f>_xll.qlIMMdate(E16)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="G16" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14234,15 +14232,15 @@
       </c>
       <c r="H16" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="I16" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J16" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H16,$C16,$F16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="K16" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -14263,11 +14261,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="160" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="F17" s="203">
         <f>_xll.qlIMMdate(E17)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="G17" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14275,15 +14273,15 @@
       </c>
       <c r="H17" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="I17" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J17" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H17,$C17,$F17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="K17" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -14304,11 +14302,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="160" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="F18" s="203">
         <f>_xll.qlIMMdate(E18)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="G18" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14316,15 +14314,15 @@
       </c>
       <c r="H18" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="I18" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J18" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H18,$C18,$F18,$G18,$I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="K18" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -14345,11 +14343,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="160" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="F19" s="203">
         <f>_xll.qlIMMdate(E19)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="G19" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14357,15 +14355,15 @@
       </c>
       <c r="H19" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="I19" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J19" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H19,$C19,$F19,$G19,$I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="K19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -14386,11 +14384,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="160" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="F20" s="203">
         <f>_xll.qlIMMdate(E20)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="G20" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14398,15 +14396,15 @@
       </c>
       <c r="H20" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="I20" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J20" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H20,$C20,$F20,$G20,$I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="K20" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -14427,11 +14425,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="160" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="F21" s="203">
         <f>_xll.qlIMMdate(E21)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="G21" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14439,15 +14437,15 @@
       </c>
       <c r="H21" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="I21" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J21" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H21,$C21,$F21,$G21,$I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="K21" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -14468,11 +14466,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="160" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="F22" s="203">
         <f>_xll.qlIMMdate(E22)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="G22" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14480,15 +14478,15 @@
       </c>
       <c r="H22" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="I22" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J22" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H22,$C22,$F22,$G22,$I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="K22" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J22)</f>
@@ -14509,11 +14507,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="160" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="F23" s="203">
         <f>_xll.qlIMMdate(E23)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="G23" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14521,15 +14519,15 @@
       </c>
       <c r="H23" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="I23" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J23" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H23,$C23,$F23,$G23,$I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="K23" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J23)</f>
@@ -14550,11 +14548,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="160" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="F24" s="203">
         <f>_xll.qlIMMdate(E24)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="G24" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14562,15 +14560,15 @@
       </c>
       <c r="H24" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="I24" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J24" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H24,$C24,$F24,$G24,$I24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="K24" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J24)</f>
@@ -14591,11 +14589,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="160" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="F25" s="203">
         <f>_xll.qlIMMdate(E25)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="G25" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14603,15 +14601,15 @@
       </c>
       <c r="H25" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="I25" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J25" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H25,$C25,$F25,$G25,$I25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="K25" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J25)</f>
@@ -14632,11 +14630,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="160" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="F26" s="203">
         <f>_xll.qlIMMdate(E26)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="G26" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14644,15 +14642,15 @@
       </c>
       <c r="H26" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="I26" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J26" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H26,$C26,$F26,$G26,$I26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="K26" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J26)</f>
@@ -14673,11 +14671,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="160" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="F27" s="203">
         <f>_xll.qlIMMdate(E27)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="G27" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14685,15 +14683,15 @@
       </c>
       <c r="H27" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="I27" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J27" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H27,$C27,$F27,$G27,$I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="K27" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J27)</f>
@@ -14714,11 +14712,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="160" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="F28" s="203">
         <f>_xll.qlIMMdate(E28)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="G28" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14726,15 +14724,15 @@
       </c>
       <c r="H28" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="I28" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J28" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H28,$C28,$F28,$G28,$I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="K28" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J28)</f>
@@ -14755,11 +14753,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="160" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="F29" s="203">
         <f>_xll.qlIMMdate(E29)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="G29" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14767,15 +14765,15 @@
       </c>
       <c r="H29" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="I29" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J29" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H29,$C29,$F29,$G29,$I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="K29" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J29)</f>
@@ -14796,11 +14794,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="160" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="F30" s="203">
         <f>_xll.qlIMMdate(E30)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="G30" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14808,15 +14806,15 @@
       </c>
       <c r="H30" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="I30" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J30" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H30,$C30,$F30,$G30,$I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="K30" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
@@ -14837,11 +14835,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="160" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="F31" s="203">
         <f>_xll.qlIMMdate(E31)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="G31" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14849,15 +14847,15 @@
       </c>
       <c r="H31" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="I31" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM0ConvAdj_Quote</v>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J31" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H31,$C31,$F31,$G31,$I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="K31" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
@@ -14878,11 +14876,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="160" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="F32" s="203">
         <f>_xll.qlIMMdate(E32)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="G32" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14890,15 +14888,15 @@
       </c>
       <c r="H32" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="I32" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU0ConvAdj_Quote</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="J32" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H32,$C32,$F32,$G32,$I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="K32" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
@@ -14919,11 +14917,11 @@
         <v>1</v>
       </c>
       <c r="E33" s="160" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="F33" s="203">
         <f>_xll.qlIMMdate(E33)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="G33" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14931,15 +14929,15 @@
       </c>
       <c r="H33" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="I33" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ0ConvAdj_Quote</v>
+        <v>JPYFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="J33" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H33,$C33,$F33,$G33,$I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="K33" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
@@ -14960,11 +14958,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="160" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="F34" s="203">
         <f>_xll.qlIMMdate(E34)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="G34" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14972,15 +14970,15 @@
       </c>
       <c r="H34" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="I34" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH1ConvAdj_Quote</v>
+        <v>JPYFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="J34" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H34,$C34,$F34,$G34,$I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="K34" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
@@ -15001,11 +14999,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="160" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="F35" s="203">
         <f>_xll.qlIMMdate(E35)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="G35" s="156" t="str">
         <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -15013,15 +15011,15 @@
       </c>
       <c r="H35" s="157" t="str">
         <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="I35" s="157" t="str">
         <f t="shared" ref="I35:I44" si="5">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM1ConvAdj_Quote</v>
+        <v>JPYFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="J35" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H35,$C35,$F35,$G35,$I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="K35" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J35)</f>
@@ -15042,11 +15040,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="160" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="F36" s="203">
         <f>_xll.qlIMMdate(E36)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="G36" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15054,15 +15052,15 @@
       </c>
       <c r="H36" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="I36" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU1ConvAdj_Quote</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="J36" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H36,$C36,$F36,$G36,$I36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="K36" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J36)</f>
@@ -15083,11 +15081,11 @@
         <v>1</v>
       </c>
       <c r="E37" s="160" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="F37" s="203">
         <f>_xll.qlIMMdate(E37)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="G37" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15095,15 +15093,15 @@
       </c>
       <c r="H37" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="I37" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ1ConvAdj_Quote</v>
+        <v>JPYFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="J37" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H37,$C37,$F37,$G37,$I37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="K37" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J37)</f>
@@ -15124,11 +15122,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="160" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="F38" s="203">
         <f>_xll.qlIMMdate(E38)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="G38" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15136,15 +15134,15 @@
       </c>
       <c r="H38" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="I38" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH2ConvAdj_Quote</v>
+        <v>JPYFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="J38" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H38,$C38,$F38,$G38,$I38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="K38" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J38)</f>
@@ -15165,11 +15163,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="160" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="F39" s="203">
         <f>_xll.qlIMMdate(E39)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="G39" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15177,15 +15175,15 @@
       </c>
       <c r="H39" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="I39" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM2ConvAdj_Quote</v>
+        <v>JPYFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="J39" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H39,$C39,$F39,$G39,$I39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="K39" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J39)</f>
@@ -15206,11 +15204,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="160" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="F40" s="203">
         <f>_xll.qlIMMdate(E40)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="G40" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15218,15 +15216,15 @@
       </c>
       <c r="H40" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="I40" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU2ConvAdj_Quote</v>
+        <v>JPYFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="J40" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H40,$C40,$F40,$G40,$I40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="K40" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J40)</f>
@@ -15246,11 +15244,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="160" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="F41" s="203">
         <f>_xll.qlIMMdate(E41)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15258,15 +15256,15 @@
       </c>
       <c r="H41" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="I41" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ2ConvAdj_Quote</v>
+        <v>JPYFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="J41" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H41,$C41,$F41,$G41,$I41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="K41" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J41)</f>
@@ -15286,11 +15284,11 @@
         <v>1</v>
       </c>
       <c r="E42" s="160" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="F42" s="203">
         <f>_xll.qlIMMdate(E42)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="G42" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15298,15 +15296,15 @@
       </c>
       <c r="H42" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="I42" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH3ConvAdj_Quote</v>
+        <v>JPYFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="J42" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H42,$C42,$F42,$G42,$I42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="K42" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J42)</f>
@@ -15326,11 +15324,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="160" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="F43" s="203">
         <f>_xll.qlIMMdate(E43)</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="G43" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15338,15 +15336,15 @@
       </c>
       <c r="H43" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM3_Quote</v>
+        <v>JPYFUT3MU3_Quote</v>
       </c>
       <c r="I43" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM3ConvAdj_Quote</v>
+        <v>JPYFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="J43" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H43,$C43,$F43,$G43,$I43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="K43" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J43)</f>
@@ -15366,11 +15364,11 @@
         <v>1</v>
       </c>
       <c r="E44" s="160" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="F44" s="203">
         <f>_xll.qlIMMdate(E44)</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="G44" s="156" t="str">
         <f t="shared" si="3"/>
@@ -15378,15 +15376,15 @@
       </c>
       <c r="H44" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU3_Quote</v>
+        <v>JPYFUT3MZ3_Quote</v>
       </c>
       <c r="I44" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU3ConvAdj_Quote</v>
+        <v>JPYFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="J44" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$H44,$C44,$F44,$G44,$I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="K44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J44)</f>
@@ -15425,9 +15423,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15524,7 +15520,7 @@
       <c r="K3" s="66"/>
       <c r="L3" s="167" t="str">
         <f>_xll.qlLibor(,Currency,$J$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00327#0001</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="M3" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -15586,8 +15582,8 @@
         <v>JPYSB6L1Y_Quote</v>
       </c>
       <c r="L5" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K5,$B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00332#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K5,$B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00427#0001</v>
       </c>
       <c r="M5" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -15636,8 +15632,8 @@
         <v>JPYSB6L15M_Quote</v>
       </c>
       <c r="L6" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00337#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043b#0001</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15690,8 +15686,8 @@
         <v>JPYSB6L18M_Quote</v>
       </c>
       <c r="L7" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032f#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00436#0001</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15744,8 +15740,8 @@
         <v>JPYSB6L21M_Quote</v>
       </c>
       <c r="L8" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00342#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00431#0001</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15798,8 +15794,8 @@
         <v>JPYSB6L2Y_Quote</v>
       </c>
       <c r="L9" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00335#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042c#0001</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15852,8 +15848,8 @@
         <v>JPYSB6L3Y_Quote</v>
       </c>
       <c r="L10" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032d#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15897,8 +15893,8 @@
         <v>JPYSB6L4Y_Quote</v>
       </c>
       <c r="L11" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00447#0001</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15942,8 +15938,8 @@
         <v>JPYSB6L5Y_Quote</v>
       </c>
       <c r="L12" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00336#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00443#0001</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15987,8 +15983,8 @@
         <v>JPYSB6L6Y_Quote</v>
       </c>
       <c r="L13" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043f#0001</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16032,8 +16028,8 @@
         <v>JPYSB6L7Y_Quote</v>
       </c>
       <c r="L14" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033c#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043a#0001</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16077,8 +16073,8 @@
         <v>JPYSB6L8Y_Quote</v>
       </c>
       <c r="L15" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00331#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00435#0001</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16122,8 +16118,8 @@
         <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="L16" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00347#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00430#0001</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16167,8 +16163,8 @@
         <v>JPYSB6L10Y_Quote</v>
       </c>
       <c r="L17" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00339#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042b#0001</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16212,8 +16208,8 @@
         <v>JPYSB6L11Y_Quote</v>
       </c>
       <c r="L18" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00449#0001</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16257,8 +16253,8 @@
         <v>JPYSB6L12Y_Quote</v>
       </c>
       <c r="L19" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00446#0001</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16302,8 +16298,8 @@
         <v>JPYSB6L13Y_Quote</v>
       </c>
       <c r="L20" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00442#0001</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16347,8 +16343,8 @@
         <v>JPYSB6L14Y_Quote</v>
       </c>
       <c r="L21" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00329#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043e#0001</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16392,8 +16388,8 @@
         <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="L22" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00341#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00439#0001</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16437,8 +16433,8 @@
         <v>JPYSB6L16Y_Quote</v>
       </c>
       <c r="L23" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00334#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00434#0001</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16482,8 +16478,8 @@
         <v>JPYSB6L17Y_Quote</v>
       </c>
       <c r="L24" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042f#0001</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16527,8 +16523,8 @@
         <v>JPYSB6L18Y_Quote</v>
       </c>
       <c r="L25" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042a#0001</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16572,8 +16568,8 @@
         <v>JPYSB6L19Y_Quote</v>
       </c>
       <c r="L26" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033f#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00448#0001</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16617,8 +16613,8 @@
         <v>JPYSB6L20Y_Quote</v>
       </c>
       <c r="L27" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00330#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00445#0001</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16662,8 +16658,8 @@
         <v>JPYSB6L21Y_Quote</v>
       </c>
       <c r="L28" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00340#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00441#0001</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16707,8 +16703,8 @@
         <v>JPYSB6L22Y_Quote</v>
       </c>
       <c r="L29" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K29,$B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K29,$B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043d#0001</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16752,8 +16748,8 @@
         <v>JPYSB6L23Y_Quote</v>
       </c>
       <c r="L30" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K30,$B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00346#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K30,$B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00438#0001</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16797,8 +16793,8 @@
         <v>JPYSB6L24Y_Quote</v>
       </c>
       <c r="L31" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K31,$B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00338#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K31,$B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00433#0001</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16842,8 +16838,8 @@
         <v>JPYSB6L25Y_Quote</v>
       </c>
       <c r="L32" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K32,$B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00328#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K32,$B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042e#0001</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16887,8 +16883,8 @@
         <v>JPYSB6L26Y_Quote</v>
       </c>
       <c r="L33" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K33,$B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00343#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K33,$B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00429#0001</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16932,8 +16928,8 @@
         <v>JPYSB6L27Y_Quote</v>
       </c>
       <c r="L34" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K34,$B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00344#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K34,$B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16977,8 +16973,8 @@
         <v>JPYSB6L28Y_Quote</v>
       </c>
       <c r="L35" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K35,$B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032c#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K35,$B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00444#0001</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17022,8 +17018,8 @@
         <v>JPYSB6L29Y_Quote</v>
       </c>
       <c r="L36" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K36,$B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00345#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K36,$B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00440#0001</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17067,8 +17063,8 @@
         <v>JPYSB6L30Y_Quote</v>
       </c>
       <c r="L37" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K37,$B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00333#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K37,$B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0043c#0001</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17112,8 +17108,8 @@
         <v>JPYSB6L35Y_Quote</v>
       </c>
       <c r="L38" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K38,$B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K38,$B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00437#0001</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17157,8 +17153,8 @@
         <v>JPYSB6L40Y_Quote</v>
       </c>
       <c r="L39" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K39,$B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033d#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K39,$B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00432#0001</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17202,8 +17198,8 @@
         <v>JPYSB6L50Y_Quote</v>
       </c>
       <c r="L40" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K40,$B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K40,$B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0042d#0001</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17247,8 +17243,8 @@
         <v>JPYSB6L60Y_Quote</v>
       </c>
       <c r="L41" s="172" t="str">
-        <f>_xll.qlSwapRateHelper2(,$K41,$B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$K41,$B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,,,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00428#0001</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>

--- a/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="120">
   <si>
     <t>3M</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>6L</t>
-  </si>
-  <si>
-    <t>Zero</t>
   </si>
   <si>
     <t>qlFraRateHelper(,H14,B14&amp;"M",G14,PillarDate,,Permanent,Trigger,ObjectOverwrite)</t>
@@ -1255,22 +1252,22 @@
     <xf numFmtId="172" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -1302,11 +1299,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="General Settings"/>
-      <sheetName val="Libor"/>
+      <sheetName val="JPYLibor"/>
       <sheetName val="Tibor"/>
-      <sheetName val="LiborSwapIsdaFixAm"/>
       <sheetName val="LiborSwapForBasisCalc"/>
-      <sheetName val="LiborSwapIsdaFixPm"/>
       <sheetName val="Deposits"/>
       <sheetName val="OIS"/>
       <sheetName val="FRA"/>
@@ -1315,14 +1310,13 @@
       <sheetName val="BasisSwap3M6M"/>
       <sheetName val="Swap3M_TIBOR"/>
       <sheetName val="Swap6M"/>
-      <sheetName val="ON"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="12">
           <cell r="D12" t="str">
-            <v>JPYSTD#0012</v>
+            <v>JPYSTD#0002</v>
           </cell>
         </row>
       </sheetData>
@@ -1336,9 +1330,6 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1677,7 +1668,7 @@
       </c>
       <c r="I3" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42180</v>
+        <v>42277</v>
       </c>
       <c r="J3" s="82"/>
     </row>
@@ -1696,7 +1687,7 @@
       </c>
       <c r="I4" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="J4" s="82"/>
     </row>
@@ -1837,7 +1828,7 @@
       </c>
       <c r="D14" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,D17,Calendar,_xll.ohPack(JPYSTD!W3:W81),,,,D18,D19,D20,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYSTD#0034</v>
+        <v>_JPYSTD#0001</v>
       </c>
       <c r="E14" s="42"/>
     </row>
@@ -1911,7 +1902,7 @@
       <c r="B22" s="23"/>
       <c r="C22" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42180</v>
+        <v>42277</v>
       </c>
       <c r="D22" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C22,,Trigger)</f>
@@ -1923,19 +1914,19 @@
       <c r="B23" s="23"/>
       <c r="C23" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>53149</v>
+        <v>53244</v>
       </c>
       <c r="D23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C23,,Trigger)</f>
-        <v>0.56460365523178413</v>
+        <v>0.64966591909946525</v>
       </c>
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="34" t="str">
-        <f>[1]Libor!$D$12</f>
-        <v>JPYSTD#0012</v>
+        <f>[1]JPYLibor!$D$12</f>
+        <v>JPYSTD#0002</v>
       </c>
       <c r="D24" s="35" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C24,D14,Trigger)</f>
@@ -2002,7 +1993,7 @@
   <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2022,7 @@
     <col min="24" max="24" width="24.7109375" style="47" customWidth="1" collapsed="1"/>
     <col min="25" max="26" width="9.7109375" style="47" customWidth="1"/>
     <col min="27" max="28" width="17.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="47" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2.7109375" style="47" customWidth="1"/>
     <col min="31" max="31" width="24.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="47" bestFit="1" customWidth="1"/>
@@ -2068,7 +2059,7 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="71" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2145,13 +2136,13 @@
       </c>
       <c r="AC2" s="159">
         <f t="array" ref="AC2:AC81">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>3.8385692042493496E-4</v>
-      </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="162" t="s">
+        <v>3.0416577951999197E-4</v>
+      </c>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="163"/>
+      <c r="AF2" s="167"/>
       <c r="AH2" s="160"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,7 +2169,7 @@
       <c r="I3" s="124"/>
       <c r="J3" s="114" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf1#0014</v>
+        <v>obj_00292#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2187,15 +2178,15 @@
       </c>
       <c r="M3" s="132" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_00cf1#0014</v>
+        <v>obj_00292#0001</v>
       </c>
       <c r="N3" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
         <v>JPYOND_Quote</v>
       </c>
-      <c r="O3" s="134" t="str">
+      <c r="O3" s="134">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="P3" s="133" t="b">
         <v>0</v>
@@ -2208,11 +2199,11 @@
       </c>
       <c r="S3" s="135">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42277</v>
       </c>
       <c r="T3" s="135">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42278</v>
       </c>
       <c r="V3" s="3" t="str">
         <f>IFERROR(INDEX($L$3:$L$81,MATCH(X3,$N$3:$N$81,0),1),"")</f>
@@ -2220,7 +2211,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W81">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00cef</v>
+        <v>obj_00290</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2228,7 +2219,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>3.7860000000000004E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Z3" s="104" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2236,16 +2227,16 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42191</v>
+        <v>42286</v>
       </c>
       <c r="AC3" s="68">
-        <v>3.8385692042493496E-4</v>
-      </c>
-      <c r="AD3" s="167"/>
+        <v>3.0416577951999197E-4</v>
+      </c>
+      <c r="AD3" s="165"/>
       <c r="AE3" s="107" t="s">
         <v>78</v>
       </c>
@@ -2278,7 +2269,7 @@
       <c r="I4" s="131"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,"1D",G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cee#0013</v>
+        <v>obj_00280#0001</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
@@ -2287,7 +2278,7 @@
       </c>
       <c r="M4" s="94" t="str">
         <f t="shared" ref="M4:M11" si="2">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_00cee#0013</v>
+        <v>obj_00280#0001</v>
       </c>
       <c r="N4" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2295,7 +2286,7 @@
       </c>
       <c r="O4" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>-6.9999999999999988E-4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="97" t="b">
         <v>0</v>
@@ -2308,18 +2299,18 @@
       </c>
       <c r="S4" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42278</v>
       </c>
       <c r="T4" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="V4" s="3" t="str">
         <f t="shared" ref="V4:V67" si="3">IFERROR(INDEX($L$3:$L$81,MATCH(X4,$N$3:$N$81,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_00cf3</v>
+        <v>obj_0028f</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2327,7 +2318,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>5.9290000000000005E-4</v>
+        <v>3.8570000000000005E-4</v>
       </c>
       <c r="Z4" s="104" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2335,16 +2326,16 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42214</v>
+        <v>42310</v>
       </c>
       <c r="AC4" s="68">
-        <v>5.7555952491402176E-4</v>
-      </c>
-      <c r="AD4" s="167"/>
+        <v>3.857847128552674E-4</v>
+      </c>
+      <c r="AD4" s="165"/>
       <c r="AE4" s="107" t="s">
         <v>79</v>
       </c>
@@ -2377,7 +2368,7 @@
       <c r="I5" s="126"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,"2D",G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf0#0013</v>
+        <v>obj_00291#0001</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
@@ -2386,7 +2377,7 @@
       </c>
       <c r="M5" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00cf0#0013</v>
+        <v>obj_00291#0001</v>
       </c>
       <c r="N5" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2394,7 +2385,7 @@
       </c>
       <c r="O5" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>-5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P5" s="97" t="b">
         <v>0</v>
@@ -2407,18 +2398,18 @@
       </c>
       <c r="S5" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T5" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42185</v>
+        <v>42282</v>
       </c>
       <c r="V5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_00cf2</v>
+        <v>obj_00293</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2426,7 +2417,7 @@
       </c>
       <c r="Y5" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>8.8570000000000012E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="Z5" s="104" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2434,16 +2425,16 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42244</v>
+        <v>42340</v>
       </c>
       <c r="AC5" s="68">
-        <v>8.6580522823798101E-4</v>
-      </c>
-      <c r="AD5" s="167"/>
+        <v>6.4772717993788335E-4</v>
+      </c>
+      <c r="AD5" s="165"/>
       <c r="AE5" s="107" t="s">
         <v>80</v>
       </c>
@@ -2467,7 +2458,7 @@
       <c r="E6" s="125"/>
       <c r="F6" s="125"/>
       <c r="G6" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C6</f>
+        <f t="shared" ref="G6:G11" si="5">Currency&amp;FamilyName&amp;C6</f>
         <v>JPYLiborSW</v>
       </c>
       <c r="H6" s="122" t="str">
@@ -2477,7 +2468,7 @@
       <c r="I6" s="125"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cef#0013</v>
+        <v>obj_00290#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -2486,7 +2477,7 @@
       </c>
       <c r="M6" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00cef#0013</v>
+        <v>obj_00290#0001</v>
       </c>
       <c r="N6" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2494,7 +2485,7 @@
       </c>
       <c r="O6" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>3.7860000000000004E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P6" s="97" t="b">
         <v>1</v>
@@ -2507,18 +2498,18 @@
       </c>
       <c r="S6" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T6" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42191</v>
+        <v>42286</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_00ce5</v>
+        <v>obj_0027e</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2526,7 +2517,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>9.5710000000000001E-4</v>
+        <v>8.4429999999999987E-4</v>
       </c>
       <c r="Z6" s="104" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2534,16 +2525,16 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42276</v>
+        <v>42373</v>
       </c>
       <c r="AC6" s="68">
-        <v>9.4584033797422183E-4</v>
-      </c>
-      <c r="AD6" s="167"/>
+        <v>8.4443691410697756E-4</v>
+      </c>
+      <c r="AD6" s="165"/>
       <c r="AE6" s="107" t="s">
         <v>81</v>
       </c>
@@ -2567,7 +2558,7 @@
       <c r="E7" s="125"/>
       <c r="F7" s="125"/>
       <c r="G7" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C7</f>
+        <f t="shared" si="5"/>
         <v>JPYLibor1M</v>
       </c>
       <c r="H7" s="122" t="str">
@@ -2577,7 +2568,7 @@
       <c r="I7" s="125"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf3#0015</v>
+        <v>obj_0028f#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2586,7 +2577,7 @@
       </c>
       <c r="M7" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00cf3#0015</v>
+        <v>obj_0028f#0001</v>
       </c>
       <c r="N7" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2594,7 +2585,7 @@
       </c>
       <c r="O7" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>5.9290000000000005E-4</v>
+        <v>3.8570000000000005E-4</v>
       </c>
       <c r="P7" s="97" t="b">
         <v>1</v>
@@ -2607,18 +2598,18 @@
       </c>
       <c r="S7" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T7" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42214</v>
+        <v>42310</v>
       </c>
       <c r="V7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_00d1b</v>
+        <v>obj_0027c</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2626,7 +2617,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>1.3929000000000003E-3</v>
+        <v>1.2514E-3</v>
       </c>
       <c r="Z7" s="104" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2634,16 +2625,16 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42367</v>
+        <v>42464</v>
       </c>
       <c r="AC7" s="68">
-        <v>1.3897591593925718E-3</v>
-      </c>
-      <c r="AD7" s="167"/>
+        <v>1.2580603921309354E-3</v>
+      </c>
+      <c r="AD7" s="165"/>
       <c r="AH7" s="160"/>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,7 +2652,7 @@
       <c r="E8" s="125"/>
       <c r="F8" s="125"/>
       <c r="G8" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C8</f>
+        <f t="shared" si="5"/>
         <v>JPYLibor2M</v>
       </c>
       <c r="H8" s="122" t="str">
@@ -2671,7 +2662,7 @@
       <c r="I8" s="125"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf2#0015</v>
+        <v>obj_00293#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2680,7 +2671,7 @@
       </c>
       <c r="M8" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00cf2#0015</v>
+        <v>obj_00293#0001</v>
       </c>
       <c r="N8" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2688,7 +2679,7 @@
       </c>
       <c r="O8" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>8.8570000000000012E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="P8" s="97" t="b">
         <v>1</v>
@@ -2701,18 +2692,18 @@
       </c>
       <c r="S8" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T8" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42244</v>
+        <v>42340</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sw</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_00d31</v>
+        <v>obj_00289</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2720,7 +2711,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>1.7749999999999999E-3</v>
+        <v>1.175E-3</v>
       </c>
       <c r="Z8" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2728,16 +2719,16 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42550</v>
+        <v>42646</v>
       </c>
       <c r="AC8" s="68">
-        <v>1.7593393580946802E-3</v>
-      </c>
-      <c r="AD8" s="167"/>
+        <v>1.1699069945669152E-3</v>
+      </c>
+      <c r="AD8" s="165"/>
       <c r="AH8" s="160"/>
     </row>
     <row r="9" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,7 +2746,7 @@
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C9</f>
+        <f t="shared" si="5"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H9" s="122" t="str">
@@ -2765,7 +2756,7 @@
       <c r="I9" s="125"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00ce5#0015</v>
+        <v>obj_0027e#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -2774,7 +2765,7 @@
       </c>
       <c r="M9" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00ce5#0015</v>
+        <v>obj_0027e#0001</v>
       </c>
       <c r="N9" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2782,7 +2773,7 @@
       </c>
       <c r="O9" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>9.5710000000000001E-4</v>
+        <v>8.4429999999999987E-4</v>
       </c>
       <c r="P9" s="97" t="b">
         <v>1</v>
@@ -2795,18 +2786,18 @@
       </c>
       <c r="S9" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T9" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42276</v>
+        <v>42373</v>
       </c>
       <c r="V9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sw</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_00d2f</v>
+        <v>obj_00287</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2814,7 +2805,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>1.7749999999999999E-3</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="Z9" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2822,16 +2813,16 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42733</v>
+        <v>42828</v>
       </c>
       <c r="AC9" s="68">
-        <v>1.764260600713364E-3</v>
-      </c>
-      <c r="AD9" s="167"/>
+        <v>1.0967502103336874E-3</v>
+      </c>
+      <c r="AD9" s="165"/>
       <c r="AH9" s="160"/>
     </row>
     <row r="10" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,7 +2840,7 @@
       <c r="E10" s="125"/>
       <c r="F10" s="125"/>
       <c r="G10" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C10</f>
+        <f t="shared" si="5"/>
         <v>JPYLibor6M</v>
       </c>
       <c r="H10" s="122" t="str">
@@ -2859,7 +2850,7 @@
       <c r="I10" s="125"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d1b#0011</v>
+        <v>obj_0027c#0001</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
@@ -2868,7 +2859,7 @@
       </c>
       <c r="M10" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00d1b#0011</v>
+        <v>obj_0027c#0001</v>
       </c>
       <c r="N10" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -2876,7 +2867,7 @@
       </c>
       <c r="O10" s="98">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>1.3929000000000003E-3</v>
+        <v>1.2514E-3</v>
       </c>
       <c r="P10" s="97" t="b">
         <v>1</v>
@@ -2889,18 +2880,18 @@
       </c>
       <c r="S10" s="99">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T10" s="99">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42367</v>
+        <v>42464</v>
       </c>
       <c r="V10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sw</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_00cf5</v>
+        <v>obj_0028a</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -2908,7 +2899,7 @@
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Z10" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -2916,16 +2907,16 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>43280</v>
+        <v>43375</v>
       </c>
       <c r="AC10" s="68">
-        <v>1.9187801223768996E-3</v>
-      </c>
-      <c r="AD10" s="167"/>
+        <v>1.1980800070177592E-3</v>
+      </c>
+      <c r="AD10" s="165"/>
       <c r="AH10" s="160"/>
     </row>
     <row r="11" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,7 +2934,7 @@
       <c r="E11" s="126"/>
       <c r="F11" s="126"/>
       <c r="G11" s="6" t="str">
-        <f>Currency&amp;FamilyName&amp;C11</f>
+        <f t="shared" si="5"/>
         <v>JPYLibor1Y</v>
       </c>
       <c r="H11" s="123" t="str">
@@ -2953,7 +2944,7 @@
       <c r="I11" s="126"/>
       <c r="J11" s="2" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d1c#0011</v>
+        <v>obj_0027d#0001</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="10" t="str">
@@ -2962,7 +2953,7 @@
       </c>
       <c r="M11" s="95" t="str">
         <f t="shared" si="2"/>
-        <v>obj_00d1c#0011</v>
+        <v>obj_0027d#0001</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -2970,7 +2961,7 @@
       </c>
       <c r="O11" s="101">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>2.5400000000000002E-3</v>
+        <v>2.4186000000000004E-3</v>
       </c>
       <c r="P11" s="100" t="b">
         <v>1</v>
@@ -2983,18 +2974,18 @@
       </c>
       <c r="S11" s="102">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T11" s="102">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42550</v>
+        <v>42646</v>
       </c>
       <c r="V11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Sw</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_00cf4</v>
+        <v>obj_0028d</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -3002,7 +2993,7 @@
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="Z11" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -3010,16 +3001,16 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>43644</v>
+        <v>43740</v>
       </c>
       <c r="AC11" s="68">
-        <v>2.2950438851705433E-3</v>
-      </c>
-      <c r="AD11" s="167"/>
+        <v>1.4985598151470974E-3</v>
+      </c>
+      <c r="AD11" s="165"/>
       <c r="AH11" s="160"/>
     </row>
     <row r="12" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,7 +3064,7 @@
         <v>Sw</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00cff</v>
+        <v>obj_0027f</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3081,7 +3072,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>2.875E-3</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="Z12" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3089,16 +3080,16 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>44011</v>
+        <v>44106</v>
       </c>
       <c r="AC12" s="68">
-        <v>2.8724454306726798E-3</v>
-      </c>
-      <c r="AD12" s="167"/>
+        <v>1.9748996558015164E-3</v>
+      </c>
+      <c r="AD12" s="165"/>
       <c r="AH12" s="160"/>
     </row>
     <row r="13" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,11 +3107,11 @@
       <c r="J13" s="63"/>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
-        <f t="shared" ref="L13:L22" si="5">A15</f>
+        <f t="shared" ref="L13:L22" si="6">A15</f>
         <v>FRA</v>
       </c>
       <c r="M13" s="94" t="str">
-        <f t="shared" ref="M13:M22" si="6">IF(ISBLANK(J15),"--",J15)</f>
+        <f t="shared" ref="M13:M22" si="7">IF(ISBLANK(J15),"--",J15)</f>
         <v>--</v>
       </c>
       <c r="N13" s="147" t="str">
@@ -3153,7 +3144,7 @@
         <v>Sw</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00d03</v>
+        <v>obj_00286</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3161,7 +3152,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>3.6750000000000003E-3</v>
+        <v>2.5249999999999999E-3</v>
       </c>
       <c r="Z13" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3169,16 +3160,16 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>44376</v>
+        <v>44473</v>
       </c>
       <c r="AC13" s="68">
-        <v>3.6783820536843283E-3</v>
-      </c>
-      <c r="AD13" s="167"/>
+        <v>2.5277822396390839E-3</v>
+      </c>
+      <c r="AD13" s="165"/>
       <c r="AH13" s="160"/>
     </row>
     <row r="14" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3188,7 +3179,7 @@
       <c r="B14" s="115">
         <v>1</v>
       </c>
-      <c r="C14" s="164" t="str">
+      <c r="C14" s="162" t="str">
         <f>"x"&amp;B14+3</f>
         <v>x4</v>
       </c>
@@ -3196,24 +3187,24 @@
       <c r="E14" s="131"/>
       <c r="F14" s="131"/>
       <c r="G14" s="55" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" ref="G14:G24" si="8">Currency&amp;FamilyName&amp;$G$12</f>
         <v>JPYLibor3M</v>
       </c>
       <c r="H14" s="118" t="str">
-        <f>Currency&amp;B14&amp;C14&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" ref="H14:H24" si="9">Currency&amp;B14&amp;C14&amp;"F"&amp;QuoteSuffix</f>
         <v>JPY1x4F_Quote</v>
       </c>
       <c r="I14" s="131"/>
       <c r="J14" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M14" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N14" s="147" t="str">
@@ -3246,7 +3237,7 @@
         <v>Sw</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00cf6</v>
+        <v>obj_00284</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3254,7 +3245,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>4.5750000000000001E-3</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="Z14" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3262,16 +3253,16 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>44741</v>
+        <v>44837</v>
       </c>
       <c r="AC14" s="68">
-        <v>4.5894438045320759E-3</v>
-      </c>
-      <c r="AD14" s="167"/>
+        <v>3.1328748112919324E-3</v>
+      </c>
+      <c r="AD14" s="165"/>
       <c r="AH14" s="160"/>
     </row>
     <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,30 +3272,30 @@
       <c r="B15" s="116">
         <v>2</v>
       </c>
-      <c r="C15" s="165" t="str">
-        <f t="shared" ref="C15:C24" si="7">"x"&amp;B15+3</f>
+      <c r="C15" s="163" t="str">
+        <f t="shared" ref="C15:C24" si="10">"x"&amp;B15+3</f>
         <v>x5</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="125"/>
       <c r="G15" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H15" s="119" t="str">
-        <f>Currency&amp;B15&amp;C15&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY2x5F_Quote</v>
       </c>
       <c r="I15" s="125"/>
       <c r="J15" s="62"/>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M15" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N15" s="147" t="str">
@@ -3337,7 +3328,7 @@
         <v>Sw</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_00d02</v>
+        <v>obj_00282</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3345,7 +3336,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>5.5249999999999995E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="Z15" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3353,16 +3344,16 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>45106</v>
+        <v>45201</v>
       </c>
       <c r="AC15" s="68">
-        <v>5.5569310931930698E-3</v>
-      </c>
-      <c r="AD15" s="167"/>
+        <v>3.7656585948869382E-3</v>
+      </c>
+      <c r="AD15" s="165"/>
       <c r="AH15" s="160"/>
     </row>
     <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3372,30 +3363,30 @@
       <c r="B16" s="116">
         <v>3</v>
       </c>
-      <c r="C16" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C16" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x6</v>
       </c>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="125"/>
       <c r="G16" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H16" s="119" t="str">
-        <f>Currency&amp;B16&amp;C16&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY3x6F_Quote</v>
       </c>
       <c r="I16" s="125"/>
       <c r="J16" s="62"/>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M16" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N16" s="147" t="str">
@@ -3428,7 +3419,7 @@
         <v>Sw</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_00cf7</v>
+        <v>obj_0028c</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3436,7 +3427,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>6.4749999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="Z16" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3444,16 +3435,16 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>45471</v>
+        <v>45567</v>
       </c>
       <c r="AC16" s="68">
-        <v>6.5311525540188483E-3</v>
-      </c>
-      <c r="AD16" s="167"/>
+        <v>4.4268558646539842E-3</v>
+      </c>
+      <c r="AD16" s="165"/>
       <c r="AH16" s="160"/>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3463,30 +3454,30 @@
       <c r="B17" s="116">
         <v>4</v>
       </c>
-      <c r="C17" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C17" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x7</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="125"/>
       <c r="G17" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H17" s="119" t="str">
-        <f>Currency&amp;B17&amp;C17&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY4x7F_Quote</v>
       </c>
       <c r="I17" s="125"/>
       <c r="J17" s="62"/>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M17" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N17" s="147" t="str">
@@ -3519,7 +3510,7 @@
         <v>Sw</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_00cfb</v>
+        <v>obj_0028e</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3527,7 +3518,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>7.4249999999999993E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="Z17" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3535,16 +3526,16 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>45838</v>
+        <v>45932</v>
       </c>
       <c r="AC17" s="68">
-        <v>7.5131001149696883E-3</v>
-      </c>
-      <c r="AD17" s="167"/>
+        <v>5.1431381757396236E-3</v>
+      </c>
+      <c r="AD17" s="165"/>
       <c r="AH17" s="160"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,30 +3545,30 @@
       <c r="B18" s="116">
         <v>5</v>
       </c>
-      <c r="C18" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C18" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x8</v>
       </c>
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="125"/>
       <c r="G18" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H18" s="119" t="str">
-        <f>Currency&amp;B18&amp;C18&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY5x8F_Quote</v>
       </c>
       <c r="I18" s="125"/>
       <c r="J18" s="62"/>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M18" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N18" s="147" t="str">
@@ -3610,7 +3601,7 @@
         <v>Sw</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_00cfe</v>
+        <v>obj_00283</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -3618,7 +3609,7 @@
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>9.2999999999999992E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="Z18" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3626,16 +3617,16 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>46567</v>
+        <v>46664</v>
       </c>
       <c r="AC18" s="68">
-        <v>9.4784308951913095E-3</v>
-      </c>
-      <c r="AD18" s="167"/>
+        <v>6.5901202724049221E-3</v>
+      </c>
+      <c r="AD18" s="165"/>
       <c r="AH18" s="160"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3645,30 +3636,30 @@
       <c r="B19" s="116">
         <v>6</v>
       </c>
-      <c r="C19" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C19" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x9</v>
       </c>
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
       <c r="G19" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H19" s="119" t="str">
-        <f>Currency&amp;B19&amp;C19&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY6x9F_Quote</v>
       </c>
       <c r="I19" s="125"/>
       <c r="J19" s="62"/>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M19" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N19" s="147" t="str">
@@ -3701,7 +3692,7 @@
         <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_00cfd</v>
+        <v>obj_00285</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -3709,7 +3700,7 @@
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.1950000000000001E-2</v>
+        <v>8.6250000000000007E-3</v>
       </c>
       <c r="Z19" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3717,16 +3708,16 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>47662</v>
+        <v>47758</v>
       </c>
       <c r="AC19" s="68">
-        <v>1.2333065394488873E-2</v>
-      </c>
-      <c r="AD19" s="167"/>
+        <v>8.8334054168220343E-3</v>
+      </c>
+      <c r="AD19" s="165"/>
       <c r="AH19" s="160"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,30 +3727,30 @@
       <c r="B20" s="116">
         <v>9</v>
       </c>
-      <c r="C20" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C20" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x12</v>
       </c>
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="125"/>
       <c r="G20" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H20" s="119" t="str">
-        <f>Currency&amp;B20&amp;C20&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY9x12F_Quote</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="62"/>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M20" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N20" s="147" t="str">
@@ -3792,7 +3783,7 @@
         <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_00cf8</v>
+        <v>obj_00281</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -3800,7 +3791,7 @@
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.52E-2</v>
+        <v>1.1350000000000001E-2</v>
       </c>
       <c r="Z20" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -3808,16 +3799,16 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>49489</v>
+        <v>49584</v>
       </c>
       <c r="AC20" s="68">
-        <v>1.5990069732938303E-2</v>
-      </c>
-      <c r="AD20" s="167"/>
+        <v>1.1811361614499376E-2</v>
+      </c>
+      <c r="AD20" s="165"/>
       <c r="AH20" s="160"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3827,30 +3818,30 @@
       <c r="B21" s="116">
         <v>12</v>
       </c>
-      <c r="C21" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C21" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x15</v>
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="125"/>
       <c r="G21" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H21" s="119" t="str">
-        <f>Currency&amp;B21&amp;C21&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY12x15F_Quote</v>
       </c>
       <c r="I21" s="125"/>
       <c r="J21" s="62"/>
       <c r="K21" s="48"/>
       <c r="L21" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M21" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N21" s="147" t="str">
@@ -3883,7 +3874,7 @@
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_00cfa</v>
+        <v>obj_00288</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -3891,7 +3882,7 @@
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.6875000000000001E-2</v>
+        <v>1.2825E-2</v>
       </c>
       <c r="Z21" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3899,16 +3890,16 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>51316</v>
+        <v>51411</v>
       </c>
       <c r="AC21" s="68">
-        <v>1.7921235264048319E-2</v>
-      </c>
-      <c r="AD21" s="167"/>
+        <v>1.3460699539071651E-2</v>
+      </c>
+      <c r="AD21" s="165"/>
       <c r="AH21" s="160"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,30 +3909,30 @@
       <c r="B22" s="116">
         <v>15</v>
       </c>
-      <c r="C22" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C22" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x18</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="125"/>
       <c r="G22" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H22" s="119" t="str">
-        <f>Currency&amp;B22&amp;C22&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY15x18F_Quote</v>
       </c>
       <c r="I22" s="125"/>
       <c r="J22" s="62"/>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FRA</v>
       </c>
       <c r="M22" s="94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="N22" s="147" t="str">
@@ -3974,7 +3965,7 @@
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_00d01</v>
+        <v>obj_0028b</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -3982,7 +3973,7 @@
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>1.7825000000000001E-2</v>
+        <v>1.3625E-2</v>
       </c>
       <c r="Z22" s="104">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3990,16 +3981,16 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>53142</v>
+        <v>53237</v>
       </c>
       <c r="AC22" s="68">
-        <v>1.9017172574518581E-2</v>
-      </c>
-      <c r="AD22" s="167"/>
+        <v>1.4350871796360019E-2</v>
+      </c>
+      <c r="AD22" s="165"/>
       <c r="AH22" s="160"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4009,30 +4000,30 @@
       <c r="B23" s="116">
         <v>18</v>
       </c>
-      <c r="C23" s="165" t="str">
-        <f t="shared" si="7"/>
+      <c r="C23" s="163" t="str">
+        <f t="shared" si="10"/>
         <v>x21</v>
       </c>
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="125"/>
       <c r="G23" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H23" s="119" t="str">
-        <f>Currency&amp;B23&amp;C23&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY18x21F_Quote</v>
       </c>
       <c r="I23" s="125"/>
       <c r="J23" s="62"/>
       <c r="K23" s="48"/>
       <c r="L23" s="66" t="str">
-        <f>A27</f>
+        <f t="shared" ref="L23:L44" si="11">A27</f>
         <v>FUT</v>
       </c>
       <c r="M23" s="132" t="str">
-        <f>IF(ISBLANK(J27),"--",J27)</f>
+        <f t="shared" ref="M23:M44" si="12">IF(ISBLANK(J27),"--",J27)</f>
         <v>qlFuturesRateHelper(,H14,$H$12,C14,G14,I14,Permanent,Trigger,ObjectOverwrite)</v>
       </c>
       <c r="N23" s="146" t="str">
@@ -4090,7 +4081,7 @@
       <c r="AC23" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD23" s="167"/>
+      <c r="AD23" s="165"/>
       <c r="AH23" s="160"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4100,30 +4091,30 @@
       <c r="B24" s="117">
         <v>21</v>
       </c>
-      <c r="C24" s="166" t="str">
-        <f t="shared" si="7"/>
+      <c r="C24" s="164" t="str">
+        <f t="shared" si="10"/>
         <v>x24</v>
       </c>
       <c r="D24" s="126"/>
       <c r="E24" s="126"/>
       <c r="F24" s="126"/>
       <c r="G24" s="6" t="str">
-        <f>Currency&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="8"/>
         <v>JPYLibor3M</v>
       </c>
       <c r="H24" s="120" t="str">
-        <f>Currency&amp;B24&amp;C24&amp;"F"&amp;QuoteSuffix</f>
+        <f t="shared" si="9"/>
         <v>JPY21x24F_Quote</v>
       </c>
       <c r="I24" s="126"/>
       <c r="J24" s="2"/>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
-        <f>A28</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M24" s="94" t="str">
-        <f>IF(ISBLANK(J28),"--",J28)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N24" s="147" t="str">
@@ -4197,11 +4188,11 @@
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
-        <f>A29</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M25" s="94" t="str">
-        <f>IF(ISBLANK(J29),"--",J29)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N25" s="147" t="str">
@@ -4288,11 +4279,11 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="9" t="str">
-        <f>A30</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M26" s="94" t="str">
-        <f>IF(ISBLANK(J30),"--",J30)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N26" s="147" t="str">
@@ -4361,33 +4352,33 @@
       </c>
       <c r="C27" s="56" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B27,Trigger)</f>
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="D27" s="131"/>
       <c r="E27" s="131"/>
       <c r="F27" s="131"/>
       <c r="G27" s="55" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" ref="G27:G48" si="13">PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
         <v>JpyLibor3M</v>
       </c>
       <c r="H27" s="118" t="str">
-        <f t="shared" ref="H27:H48" si="8">Currency&amp;"FUT"&amp;$G$1&amp;$C27&amp;QuoteSuffix</f>
-        <v>JPYFUT3MN5_Quote</v>
+        <f t="shared" ref="H27:H48" si="14">Currency&amp;"FUT"&amp;$G$1&amp;$C27&amp;QuoteSuffix</f>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="I27" s="118" t="str">
-        <f t="shared" ref="I27:I48" si="9">Currency&amp;"FUT"&amp;$G$1&amp;$C27&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MN5ConvAdj_Quote</v>
+        <f t="shared" ref="I27:I48" si="15">Currency&amp;"FUT"&amp;$G$1&amp;$C27&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J27" s="57" t="s">
         <v>113</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
-        <f>A31</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M27" s="94" t="str">
-        <f>IF(ISBLANK(J31),"--",J31)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N27" s="147" t="str">
@@ -4456,31 +4447,31 @@
       </c>
       <c r="C28" s="61" t="str">
         <f>_xll.qlIMMNextCode(C27,B28,Trigger)</f>
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="125"/>
       <c r="G28" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H28" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MQ5_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="I28" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MQ5ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J28" s="62"/>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
-        <f>A32</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M28" s="94" t="str">
-        <f>IF(ISBLANK(J32),"--",J32)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N28" s="147" t="str">
@@ -4549,31 +4540,31 @@
       </c>
       <c r="C29" s="61" t="str">
         <f>_xll.qlIMMNextCode(C28,B29,Trigger)</f>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="125"/>
       <c r="G29" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H29" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MU5_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="I29" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J29" s="62"/>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
-        <f>A33</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M29" s="94" t="str">
-        <f>IF(ISBLANK(J33),"--",J33)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N29" s="147" t="str">
@@ -4642,31 +4633,31 @@
       </c>
       <c r="C30" s="61" t="str">
         <f>_xll.qlIMMNextCode(C29,B30,Trigger)</f>
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="125"/>
       <c r="G30" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H30" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MV5_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MF6_Quote</v>
       </c>
       <c r="I30" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J30" s="62"/>
       <c r="K30" s="48"/>
       <c r="L30" s="9" t="str">
-        <f>A34</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M30" s="94" t="str">
-        <f>IF(ISBLANK(J34),"--",J34)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N30" s="147" t="str">
@@ -4735,31 +4726,31 @@
       </c>
       <c r="C31" s="8" t="str">
         <f>_xll.qlIMMNextCode(C30,B31,Trigger)</f>
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
       <c r="F31" s="126"/>
       <c r="G31" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H31" s="120" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MX5_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MG6_Quote</v>
       </c>
       <c r="I31" s="120" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MX5ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
-        <f>A35</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M31" s="94" t="str">
-        <f>IF(ISBLANK(J35),"--",J35)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N31" s="147" t="str">
@@ -4828,31 +4819,31 @@
       </c>
       <c r="C32" s="61" t="str">
         <f>_xll.qlIMMNextCode(C31,B32,Trigger)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="125"/>
       <c r="G32" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H32" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="I32" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J32" s="62"/>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
-        <f>A36</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M32" s="94" t="str">
-        <f>IF(ISBLANK(J36),"--",J36)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N32" s="147" t="str">
@@ -4920,31 +4911,31 @@
       </c>
       <c r="C33" s="61" t="str">
         <f>_xll.qlIMMNextCode(C32,B33,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="125"/>
       <c r="G33" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H33" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="I33" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J33" s="62"/>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
-        <f>A37</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M33" s="94" t="str">
-        <f>IF(ISBLANK(J37),"--",J37)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N33" s="147" t="str">
@@ -5012,31 +5003,31 @@
       </c>
       <c r="C34" s="61" t="str">
         <f>_xll.qlIMMNextCode(C33,B34,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="125"/>
       <c r="G34" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H34" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="I34" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J34" s="62"/>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
-        <f>A38</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M34" s="94" t="str">
-        <f>IF(ISBLANK(J38),"--",J38)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N34" s="147" t="str">
@@ -5104,31 +5095,31 @@
       </c>
       <c r="C35" s="61" t="str">
         <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="125"/>
       <c r="G35" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H35" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="I35" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J35" s="62"/>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
-        <f>A39</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M35" s="94" t="str">
-        <f>IF(ISBLANK(J39),"--",J39)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N35" s="147" t="str">
@@ -5196,31 +5187,31 @@
       </c>
       <c r="C36" s="61" t="str">
         <f>_xll.qlIMMNextCode(C35,B36,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="125"/>
       <c r="G36" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H36" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="I36" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J36" s="62"/>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
-        <f>A40</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M36" s="94" t="str">
-        <f>IF(ISBLANK(J40),"--",J40)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N36" s="147" t="str">
@@ -5288,31 +5279,31 @@
       </c>
       <c r="C37" s="61" t="str">
         <f>_xll.qlIMMNextCode(C36,B37,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="125"/>
       <c r="G37" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H37" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="I37" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
-        <f>A41</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M37" s="94" t="str">
-        <f>IF(ISBLANK(J41),"--",J41)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N37" s="147" t="str">
@@ -5380,31 +5371,31 @@
       </c>
       <c r="C38" s="61" t="str">
         <f>_xll.qlIMMNextCode(C37,B38,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="125"/>
       <c r="G38" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H38" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="I38" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J38" s="62"/>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
-        <f>A42</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M38" s="94" t="str">
-        <f>IF(ISBLANK(J42),"--",J42)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N38" s="147" t="str">
@@ -5472,31 +5463,31 @@
       </c>
       <c r="C39" s="61" t="str">
         <f>_xll.qlIMMNextCode(C38,B39,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
       <c r="G39" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H39" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="I39" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J39" s="62"/>
       <c r="K39" s="48"/>
       <c r="L39" s="9" t="str">
-        <f>A43</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M39" s="94" t="str">
-        <f>IF(ISBLANK(J43),"--",J43)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N39" s="147" t="str">
@@ -5564,31 +5555,31 @@
       </c>
       <c r="C40" s="61" t="str">
         <f>_xll.qlIMMNextCode(C39,B40,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="125"/>
       <c r="G40" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H40" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="I40" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J40" s="62"/>
       <c r="K40" s="48"/>
       <c r="L40" s="9" t="str">
-        <f>A44</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M40" s="94" t="str">
-        <f>IF(ISBLANK(J44),"--",J44)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N40" s="147" t="str">
@@ -5656,30 +5647,30 @@
       </c>
       <c r="C41" s="61" t="str">
         <f>_xll.qlIMMNextCode(C40,B41,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="125"/>
       <c r="G41" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H41" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="I41" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J41" s="62"/>
       <c r="L41" s="9" t="str">
-        <f>A45</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M41" s="94" t="str">
-        <f>IF(ISBLANK(J45),"--",J45)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N41" s="147" t="str">
@@ -5747,30 +5738,30 @@
       </c>
       <c r="C42" s="61" t="str">
         <f>_xll.qlIMMNextCode(C41,B42,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="125"/>
       <c r="G42" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H42" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="I42" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J42" s="62"/>
       <c r="L42" s="9" t="str">
-        <f>A46</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M42" s="94" t="str">
-        <f>IF(ISBLANK(J46),"--",J46)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N42" s="147" t="str">
@@ -5838,30 +5829,30 @@
       </c>
       <c r="C43" s="61" t="str">
         <f>_xll.qlIMMNextCode(C42,B43,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="125"/>
       <c r="G43" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H43" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="I43" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J43" s="62"/>
       <c r="L43" s="9" t="str">
-        <f>A47</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M43" s="94" t="str">
-        <f>IF(ISBLANK(J47),"--",J47)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N43" s="147" t="str">
@@ -5929,30 +5920,30 @@
       </c>
       <c r="C44" s="61" t="str">
         <f>_xll.qlIMMNextCode(C43,B44,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="125"/>
       <c r="G44" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H44" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="I44" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J44" s="62"/>
       <c r="L44" s="10" t="str">
-        <f>A48</f>
+        <f t="shared" si="11"/>
         <v>FUT</v>
       </c>
       <c r="M44" s="95" t="str">
-        <f>IF(ISBLANK(J48),"--",J48)</f>
+        <f t="shared" si="12"/>
         <v>--</v>
       </c>
       <c r="N44" s="148" t="str">
@@ -6020,31 +6011,31 @@
       </c>
       <c r="C45" s="61" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="125"/>
       <c r="G45" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H45" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="I45" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J45" s="62"/>
       <c r="L45" s="136" t="str">
-        <f>A51</f>
+        <f t="shared" ref="L45:L81" si="16">A51</f>
         <v>Sw</v>
       </c>
       <c r="M45" s="137" t="str">
-        <f>IF(ISBLANK(J51),"--",J51)</f>
-        <v>obj_00d31#0036</v>
+        <f t="shared" ref="M45:M81" si="17">IF(ISBLANK(J51),"--",J51)</f>
+        <v>obj_00289#0001</v>
       </c>
       <c r="N45" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
@@ -6052,7 +6043,7 @@
       </c>
       <c r="O45" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M45,Trigger),"--")</f>
-        <v>1.7749999999999999E-3</v>
+        <v>1.175E-3</v>
       </c>
       <c r="P45" s="138" t="b">
         <v>1</v>
@@ -6065,11 +6056,11 @@
       </c>
       <c r="S45" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M45,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T45" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M45,Trigger),"--")</f>
-        <v>42550</v>
+        <v>42646</v>
       </c>
       <c r="V45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6111,30 +6102,30 @@
       </c>
       <c r="C46" s="61" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="125"/>
       <c r="G46" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H46" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="I46" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J46" s="62"/>
       <c r="L46" s="69" t="str">
-        <f>A52</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M46" s="141" t="str">
-        <f>IF(ISBLANK(J52),"--",J52)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N46" s="150" t="str">
@@ -6202,31 +6193,31 @@
       </c>
       <c r="C47" s="61" t="str">
         <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="125"/>
       <c r="G47" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H47" s="119" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="I47" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J47" s="62"/>
       <c r="L47" s="69" t="str">
-        <f>A53</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M47" s="141" t="str">
-        <f>IF(ISBLANK(J53),"--",J53)</f>
-        <v>obj_00d2f#0005</v>
+        <f t="shared" si="17"/>
+        <v>obj_00287#0001</v>
       </c>
       <c r="N47" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
@@ -6234,7 +6225,7 @@
       </c>
       <c r="O47" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>1.7749999999999999E-3</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="P47" s="142" t="b">
         <v>1</v>
@@ -6247,11 +6238,11 @@
       </c>
       <c r="S47" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M47,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T47" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M47,Trigger),"--")</f>
-        <v>42733</v>
+        <v>42828</v>
       </c>
       <c r="V47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6293,30 +6284,30 @@
       </c>
       <c r="C48" s="8" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="126"/>
       <c r="F48" s="126"/>
       <c r="G48" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$25</f>
+        <f t="shared" si="13"/>
         <v>JpyLibor3M</v>
       </c>
       <c r="H48" s="120" t="str">
-        <f t="shared" si="8"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <f t="shared" si="14"/>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="I48" s="120" t="str">
-        <f t="shared" si="9"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <f t="shared" si="15"/>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J48" s="2"/>
       <c r="L48" s="69" t="str">
-        <f>A54</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M48" s="141" t="str">
-        <f>IF(ISBLANK(J54),"--",J54)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N48" s="150" t="str">
@@ -6383,11 +6374,11 @@
         <v>118</v>
       </c>
       <c r="L49" s="69" t="str">
-        <f>A55</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M49" s="141" t="str">
-        <f>IF(ISBLANK(J55),"--",J55)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N49" s="150" t="str">
@@ -6478,12 +6469,12 @@
         <v>24</v>
       </c>
       <c r="L50" s="69" t="str">
-        <f>A56</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M50" s="141" t="str">
-        <f>IF(ISBLANK(J56),"--",J56)</f>
-        <v>obj_00cf5#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0028a#0001</v>
       </c>
       <c r="N50" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
@@ -6491,7 +6482,7 @@
       </c>
       <c r="O50" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M50,Trigger),"--")</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P50" s="142" t="b">
         <v>1</v>
@@ -6504,11 +6495,11 @@
       </c>
       <c r="S50" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M50,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T50" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M50,Trigger),"--")</f>
-        <v>43280</v>
+        <v>43375</v>
       </c>
       <c r="V50" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6561,11 +6552,11 @@
         <v>116</v>
       </c>
       <c r="G51" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" ref="G51:G87" si="18">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
         <v>JpyLibor6M</v>
       </c>
       <c r="H51" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B51&amp;"_Quote"</f>
+        <f t="shared" ref="H51:H87" si="19">Currency&amp;$G$49&amp;$H$49&amp;$B51&amp;"_Quote"</f>
         <v>JPYSB6L1Y_Quote</v>
       </c>
       <c r="I51" s="128">
@@ -6573,15 +6564,15 @@
       </c>
       <c r="J51" s="57" t="str">
         <f>_xll.qlSwapRateHelper2(,H51,,B51,JoinCalendar,JPYSTD!D51,JPYSTD!E51,JPYSTD!F51,JPYSTD!G51,JPYSTD!I51,JPYSTD!C51,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d31#0036</v>
+        <v>obj_00289#0001</v>
       </c>
       <c r="L51" s="69" t="str">
-        <f>A57</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M51" s="141" t="str">
-        <f>IF(ISBLANK(J57),"--",J57)</f>
-        <v>obj_00cf4#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0028d#0001</v>
       </c>
       <c r="N51" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -6589,7 +6580,7 @@
       </c>
       <c r="O51" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="P51" s="142" t="b">
         <v>1</v>
@@ -6602,11 +6593,11 @@
       </c>
       <c r="S51" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T51" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>43644</v>
+        <v>43740</v>
       </c>
       <c r="V51" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6659,11 +6650,11 @@
         <v>116</v>
       </c>
       <c r="G52" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H52" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B52&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L15M_Quote</v>
       </c>
       <c r="I52" s="129">
@@ -6671,12 +6662,12 @@
       </c>
       <c r="J52" s="62"/>
       <c r="L52" s="69" t="str">
-        <f>A58</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M52" s="141" t="str">
-        <f>IF(ISBLANK(J58),"--",J58)</f>
-        <v>obj_00cff#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0027f#0001</v>
       </c>
       <c r="N52" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
@@ -6684,7 +6675,7 @@
       </c>
       <c r="O52" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
-        <v>2.875E-3</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="P52" s="142" t="b">
         <v>1</v>
@@ -6697,11 +6688,11 @@
       </c>
       <c r="S52" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T52" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
-        <v>44011</v>
+        <v>44106</v>
       </c>
       <c r="V52" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6754,11 +6745,11 @@
         <v>116</v>
       </c>
       <c r="G53" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H53" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B53&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L18M_Quote</v>
       </c>
       <c r="I53" s="129">
@@ -6766,15 +6757,15 @@
       </c>
       <c r="J53" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H53,,B53,JoinCalendar,JPYSTD!D53,JPYSTD!E53,JPYSTD!F53,JPYSTD!G53,JPYSTD!I53,JPYSTD!C53,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d2f#0005</v>
+        <v>obj_00287#0001</v>
       </c>
       <c r="L53" s="69" t="str">
-        <f>A59</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M53" s="141" t="str">
-        <f>IF(ISBLANK(J59),"--",J59)</f>
-        <v>obj_00d03#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00286#0001</v>
       </c>
       <c r="N53" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
@@ -6782,7 +6773,7 @@
       </c>
       <c r="O53" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M53,Trigger),"--")</f>
-        <v>3.6750000000000003E-3</v>
+        <v>2.5249999999999999E-3</v>
       </c>
       <c r="P53" s="142" t="b">
         <v>1</v>
@@ -6795,11 +6786,11 @@
       </c>
       <c r="S53" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T53" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
-        <v>44376</v>
+        <v>44473</v>
       </c>
       <c r="V53" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6852,11 +6843,11 @@
         <v>116</v>
       </c>
       <c r="G54" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H54" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B54&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L21M_Quote</v>
       </c>
       <c r="I54" s="129">
@@ -6864,12 +6855,12 @@
       </c>
       <c r="J54" s="62"/>
       <c r="L54" s="69" t="str">
-        <f>A60</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M54" s="141" t="str">
-        <f>IF(ISBLANK(J60),"--",J60)</f>
-        <v>obj_00cf6#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00284#0001</v>
       </c>
       <c r="N54" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -6877,7 +6868,7 @@
       </c>
       <c r="O54" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>4.5750000000000001E-3</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="P54" s="142" t="b">
         <v>1</v>
@@ -6890,11 +6881,11 @@
       </c>
       <c r="S54" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T54" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>44741</v>
+        <v>44837</v>
       </c>
       <c r="V54" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6947,11 +6938,11 @@
         <v>116</v>
       </c>
       <c r="G55" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H55" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B55&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L2Y_Quote</v>
       </c>
       <c r="I55" s="129">
@@ -6959,12 +6950,12 @@
       </c>
       <c r="J55" s="62"/>
       <c r="L55" s="69" t="str">
-        <f>A61</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M55" s="141" t="str">
-        <f>IF(ISBLANK(J61),"--",J61)</f>
-        <v>obj_00d02#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00282#0001</v>
       </c>
       <c r="N55" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
@@ -6972,7 +6963,7 @@
       </c>
       <c r="O55" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M55,Trigger),"--")</f>
-        <v>5.5249999999999995E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="P55" s="142" t="b">
         <v>1</v>
@@ -6985,11 +6976,11 @@
       </c>
       <c r="S55" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M55,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T55" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M55,Trigger),"--")</f>
-        <v>45106</v>
+        <v>45201</v>
       </c>
       <c r="V55" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7042,11 +7033,11 @@
         <v>116</v>
       </c>
       <c r="G56" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H56" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B56&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L3Y_Quote</v>
       </c>
       <c r="I56" s="129">
@@ -7054,15 +7045,15 @@
       </c>
       <c r="J56" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H56,,B56,JoinCalendar,JPYSTD!D56,JPYSTD!E56,JPYSTD!F56,JPYSTD!G56,JPYSTD!I56,JPYSTD!C56,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf5#0008</v>
+        <v>obj_0028a#0001</v>
       </c>
       <c r="L56" s="69" t="str">
-        <f>A62</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M56" s="141" t="str">
-        <f>IF(ISBLANK(J62),"--",J62)</f>
-        <v>obj_00cf7#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0028c#0001</v>
       </c>
       <c r="N56" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7070,7 +7061,7 @@
       </c>
       <c r="O56" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>6.4749999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="P56" s="142" t="b">
         <v>1</v>
@@ -7083,11 +7074,11 @@
       </c>
       <c r="S56" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T56" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>45471</v>
+        <v>45567</v>
       </c>
       <c r="V56" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7140,11 +7131,11 @@
         <v>116</v>
       </c>
       <c r="G57" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H57" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B57&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L4Y_Quote</v>
       </c>
       <c r="I57" s="129">
@@ -7152,15 +7143,15 @@
       </c>
       <c r="J57" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H57,,B57,JoinCalendar,JPYSTD!D57,JPYSTD!E57,JPYSTD!F57,JPYSTD!G57,JPYSTD!I57,JPYSTD!C57,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf4#0008</v>
+        <v>obj_0028d#0001</v>
       </c>
       <c r="L57" s="69" t="str">
-        <f>A63</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M57" s="141" t="str">
-        <f>IF(ISBLANK(J63),"--",J63)</f>
-        <v>obj_00cfb#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0028e#0001</v>
       </c>
       <c r="N57" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7168,7 +7159,7 @@
       </c>
       <c r="O57" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>7.4249999999999993E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="P57" s="142" t="b">
         <v>1</v>
@@ -7181,11 +7172,11 @@
       </c>
       <c r="S57" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T57" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>45838</v>
+        <v>45932</v>
       </c>
       <c r="V57" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7238,11 +7229,11 @@
         <v>116</v>
       </c>
       <c r="G58" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H58" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B58&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L5Y_Quote</v>
       </c>
       <c r="I58" s="129">
@@ -7250,14 +7241,14 @@
       </c>
       <c r="J58" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H58,,B58,JoinCalendar,JPYSTD!D58,JPYSTD!E58,JPYSTD!F58,JPYSTD!G58,JPYSTD!I58,JPYSTD!C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cff#0008</v>
+        <v>obj_0027f#0001</v>
       </c>
       <c r="L58" s="69" t="str">
-        <f>A64</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M58" s="142" t="str">
-        <f>IF(ISBLANK(J64),"--",J64)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N58" s="150" t="str">
@@ -7336,11 +7327,11 @@
         <v>116</v>
       </c>
       <c r="G59" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H59" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B59&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L6Y_Quote</v>
       </c>
       <c r="I59" s="129">
@@ -7348,15 +7339,15 @@
       </c>
       <c r="J59" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H59,,B59,JoinCalendar,JPYSTD!D59,JPYSTD!E59,JPYSTD!F59,JPYSTD!G59,JPYSTD!I59,JPYSTD!C59,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d03#0008</v>
+        <v>obj_00286#0001</v>
       </c>
       <c r="L59" s="69" t="str">
-        <f>A65</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M59" s="142" t="str">
-        <f>IF(ISBLANK(J65),"--",J65)</f>
-        <v>obj_00cfe#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00283#0001</v>
       </c>
       <c r="N59" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -7364,7 +7355,7 @@
       </c>
       <c r="O59" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>9.2999999999999992E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="P59" s="142" t="b">
         <v>1</v>
@@ -7377,11 +7368,11 @@
       </c>
       <c r="S59" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T59" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>46567</v>
+        <v>46664</v>
       </c>
       <c r="V59" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7434,11 +7425,11 @@
         <v>116</v>
       </c>
       <c r="G60" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H60" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B60&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L7Y_Quote</v>
       </c>
       <c r="I60" s="129">
@@ -7446,14 +7437,14 @@
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H60,,B60,JoinCalendar,JPYSTD!D60,JPYSTD!E60,JPYSTD!F60,JPYSTD!G60,JPYSTD!I60,JPYSTD!C60,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf6#0008</v>
+        <v>obj_00284#0001</v>
       </c>
       <c r="L60" s="69" t="str">
-        <f>A66</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M60" s="142" t="str">
-        <f>IF(ISBLANK(J66),"--",J66)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N60" s="150" t="str">
@@ -7532,11 +7523,11 @@
         <v>116</v>
       </c>
       <c r="G61" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H61" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B61&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L8Y_Quote</v>
       </c>
       <c r="I61" s="129">
@@ -7544,14 +7535,14 @@
       </c>
       <c r="J61" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H61,,B61,JoinCalendar,JPYSTD!D61,JPYSTD!E61,JPYSTD!F61,JPYSTD!G61,JPYSTD!I61,JPYSTD!C61,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d02#0008</v>
+        <v>obj_00282#0001</v>
       </c>
       <c r="L61" s="69" t="str">
-        <f>A67</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M61" s="142" t="str">
-        <f>IF(ISBLANK(J67),"--",J67)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N61" s="150" t="str">
@@ -7630,11 +7621,11 @@
         <v>116</v>
       </c>
       <c r="G62" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H62" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B62&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="I62" s="129">
@@ -7642,15 +7633,15 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,,B62,JoinCalendar,JPYSTD!D62,JPYSTD!E62,JPYSTD!F62,JPYSTD!G62,JPYSTD!I62,JPYSTD!C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf7#0008</v>
+        <v>obj_0028c#0001</v>
       </c>
       <c r="L62" s="69" t="str">
-        <f>A68</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M62" s="142" t="str">
-        <f>IF(ISBLANK(J68),"--",J68)</f>
-        <v>obj_00cfd#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00285#0001</v>
       </c>
       <c r="N62" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -7658,7 +7649,7 @@
       </c>
       <c r="O62" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>1.1950000000000001E-2</v>
+        <v>8.6250000000000007E-3</v>
       </c>
       <c r="P62" s="142" t="b">
         <v>1</v>
@@ -7671,11 +7662,11 @@
       </c>
       <c r="S62" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T62" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>47662</v>
+        <v>47758</v>
       </c>
       <c r="V62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7728,11 +7719,11 @@
         <v>116</v>
       </c>
       <c r="G63" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H63" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B63&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L10Y_Quote</v>
       </c>
       <c r="I63" s="129">
@@ -7740,14 +7731,14 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,,B63,JoinCalendar,JPYSTD!D63,JPYSTD!E63,JPYSTD!F63,JPYSTD!G63,JPYSTD!I63,JPYSTD!C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cfb#0008</v>
+        <v>obj_0028e#0001</v>
       </c>
       <c r="L63" s="69" t="str">
-        <f>A69</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M63" s="142" t="str">
-        <f>IF(ISBLANK(J69),"--",J69)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N63" s="150" t="str">
@@ -7826,11 +7817,11 @@
         <v>116</v>
       </c>
       <c r="G64" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H64" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B64&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L11Y_Quote</v>
       </c>
       <c r="I64" s="129">
@@ -7838,11 +7829,11 @@
       </c>
       <c r="J64" s="62"/>
       <c r="L64" s="69" t="str">
-        <f>A70</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M64" s="142" t="str">
-        <f>IF(ISBLANK(J70),"--",J70)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N64" s="150" t="str">
@@ -7921,11 +7912,11 @@
         <v>116</v>
       </c>
       <c r="G65" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H65" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B65&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L12Y_Quote</v>
       </c>
       <c r="I65" s="129">
@@ -7933,14 +7924,14 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,,B65,JoinCalendar,JPYSTD!D65,JPYSTD!E65,JPYSTD!F65,JPYSTD!G65,JPYSTD!I65,JPYSTD!C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cfe#0008</v>
+        <v>obj_00283#0001</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f>A71</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M65" s="142" t="str">
-        <f>IF(ISBLANK(J71),"--",J71)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N65" s="150" t="str">
@@ -8019,11 +8010,11 @@
         <v>116</v>
       </c>
       <c r="G66" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H66" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B66&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L13Y_Quote</v>
       </c>
       <c r="I66" s="129">
@@ -8031,11 +8022,11 @@
       </c>
       <c r="J66" s="62"/>
       <c r="L66" s="69" t="str">
-        <f>A72</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M66" s="142" t="str">
-        <f>IF(ISBLANK(J72),"--",J72)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N66" s="150" t="str">
@@ -8114,11 +8105,11 @@
         <v>116</v>
       </c>
       <c r="G67" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H67" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B67&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L14Y_Quote</v>
       </c>
       <c r="I67" s="129">
@@ -8126,12 +8117,12 @@
       </c>
       <c r="J67" s="62"/>
       <c r="L67" s="69" t="str">
-        <f>A73</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="142" t="str">
-        <f>IF(ISBLANK(J73),"--",J73)</f>
-        <v>obj_00cf8#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00281#0001</v>
       </c>
       <c r="N67" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
@@ -8139,7 +8130,7 @@
       </c>
       <c r="O67" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>1.52E-2</v>
+        <v>1.1350000000000001E-2</v>
       </c>
       <c r="P67" s="142" t="b">
         <v>1</v>
@@ -8152,11 +8143,11 @@
       </c>
       <c r="S67" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T67" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>49489</v>
+        <v>49584</v>
       </c>
       <c r="V67" s="3" t="str">
         <f t="shared" si="3"/>
@@ -8209,11 +8200,11 @@
         <v>116</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B68&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="I68" s="129">
@@ -8221,14 +8212,14 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,,B68,JoinCalendar,JPYSTD!D68,JPYSTD!E68,JPYSTD!F68,JPYSTD!G68,JPYSTD!I68,JPYSTD!C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cfd#0008</v>
+        <v>obj_00285#0001</v>
       </c>
       <c r="L68" s="69" t="str">
-        <f>A74</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="142" t="str">
-        <f>IF(ISBLANK(J74),"--",J74)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N68" s="150" t="str">
@@ -8257,7 +8248,7 @@
         <v>--</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V68:V81" si="10">IFERROR(INDEX($L$3:$L$81,MATCH(X68,$N$3:$N$81,0),1),"")</f>
+        <f t="shared" ref="V68:V81" si="20">IFERROR(INDEX($L$3:$L$81,MATCH(X68,$N$3:$N$81,0),1),"")</f>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8307,11 +8298,11 @@
         <v>116</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B69&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L16Y_Quote</v>
       </c>
       <c r="I69" s="129">
@@ -8319,11 +8310,11 @@
       </c>
       <c r="J69" s="62"/>
       <c r="L69" s="69" t="str">
-        <f>A75</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="142" t="str">
-        <f>IF(ISBLANK(J75),"--",J75)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N69" s="150" t="str">
@@ -8352,7 +8343,7 @@
         <v>--</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8402,11 +8393,11 @@
         <v>116</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B70&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L17Y_Quote</v>
       </c>
       <c r="I70" s="129">
@@ -8414,11 +8405,11 @@
       </c>
       <c r="J70" s="62"/>
       <c r="L70" s="69" t="str">
-        <f>A76</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="142" t="str">
-        <f>IF(ISBLANK(J76),"--",J76)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N70" s="150" t="str">
@@ -8447,7 +8438,7 @@
         <v>--</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8497,11 +8488,11 @@
         <v>116</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B71&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L18Y_Quote</v>
       </c>
       <c r="I71" s="129">
@@ -8509,11 +8500,11 @@
       </c>
       <c r="J71" s="62"/>
       <c r="L71" s="69" t="str">
-        <f>A77</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="142" t="str">
-        <f>IF(ISBLANK(J77),"--",J77)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N71" s="150" t="str">
@@ -8542,7 +8533,7 @@
         <v>--</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W71" s="3" t="e">
@@ -8592,11 +8583,11 @@
         <v>116</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B72&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L19Y_Quote</v>
       </c>
       <c r="I72" s="129">
@@ -8604,12 +8595,12 @@
       </c>
       <c r="J72" s="62"/>
       <c r="L72" s="69" t="str">
-        <f>A78</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M72" s="142" t="str">
-        <f>IF(ISBLANK(J78),"--",J78)</f>
-        <v>obj_00cfa#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_00288#0001</v>
       </c>
       <c r="N72" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
@@ -8617,7 +8608,7 @@
       </c>
       <c r="O72" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>1.6875000000000001E-2</v>
+        <v>1.2825E-2</v>
       </c>
       <c r="P72" s="142" t="b">
         <v>1</v>
@@ -8630,14 +8621,14 @@
       </c>
       <c r="S72" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T72" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>51316</v>
+        <v>51411</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W72" s="3" t="e">
@@ -8687,11 +8678,11 @@
         <v>116</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B73&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L20Y_Quote</v>
       </c>
       <c r="I73" s="129">
@@ -8699,14 +8690,14 @@
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H73,,B73,JoinCalendar,JPYSTD!D73,JPYSTD!E73,JPYSTD!F73,JPYSTD!G73,JPYSTD!I73,JPYSTD!C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cf8#0008</v>
+        <v>obj_00281#0001</v>
       </c>
       <c r="L73" s="69" t="str">
-        <f>A79</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M73" s="142" t="str">
-        <f>IF(ISBLANK(J79),"--",J79)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N73" s="150" t="str">
@@ -8735,7 +8726,7 @@
         <v>--</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W73" s="3" t="e">
@@ -8785,11 +8776,11 @@
         <v>116</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B74&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L21Y_Quote</v>
       </c>
       <c r="I74" s="129">
@@ -8797,11 +8788,11 @@
       </c>
       <c r="J74" s="62"/>
       <c r="L74" s="69" t="str">
-        <f>A80</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M74" s="142" t="str">
-        <f>IF(ISBLANK(J80),"--",J80)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N74" s="150" t="str">
@@ -8830,7 +8821,7 @@
         <v>--</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W74" s="3" t="e">
@@ -8880,11 +8871,11 @@
         <v>116</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B75&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L22Y_Quote</v>
       </c>
       <c r="I75" s="129">
@@ -8892,11 +8883,11 @@
       </c>
       <c r="J75" s="62"/>
       <c r="L75" s="69" t="str">
-        <f>A81</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M75" s="142" t="str">
-        <f>IF(ISBLANK(J81),"--",J81)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N75" s="150" t="str">
@@ -8925,7 +8916,7 @@
         <v>--</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W75" s="3" t="e">
@@ -8975,11 +8966,11 @@
         <v>116</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B76&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L23Y_Quote</v>
       </c>
       <c r="I76" s="129">
@@ -8987,11 +8978,11 @@
       </c>
       <c r="J76" s="62"/>
       <c r="L76" s="69" t="str">
-        <f>A82</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M76" s="142" t="str">
-        <f>IF(ISBLANK(J82),"--",J82)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N76" s="150" t="str">
@@ -9020,7 +9011,7 @@
         <v>--</v>
       </c>
       <c r="V76" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W76" s="3" t="e">
@@ -9070,11 +9061,11 @@
         <v>116</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B77&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L24Y_Quote</v>
       </c>
       <c r="I77" s="129">
@@ -9082,12 +9073,12 @@
       </c>
       <c r="J77" s="62"/>
       <c r="L77" s="69" t="str">
-        <f>A83</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M77" s="142" t="str">
-        <f>IF(ISBLANK(J83),"--",J83)</f>
-        <v>obj_00d01#0008</v>
+        <f t="shared" si="17"/>
+        <v>obj_0028b#0001</v>
       </c>
       <c r="N77" s="150" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M77,Trigger),"--")</f>
@@ -9095,7 +9086,7 @@
       </c>
       <c r="O77" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M77,Trigger),"--")</f>
-        <v>1.7825000000000001E-2</v>
+        <v>1.3625E-2</v>
       </c>
       <c r="P77" s="142" t="b">
         <v>1</v>
@@ -9108,14 +9099,14 @@
       </c>
       <c r="S77" s="144">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M77,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42279</v>
       </c>
       <c r="T77" s="144">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M77,Trigger),"--")</f>
-        <v>53142</v>
+        <v>53237</v>
       </c>
       <c r="V77" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W77" s="3" t="e">
@@ -9165,11 +9156,11 @@
         <v>116</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B78&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L25Y_Quote</v>
       </c>
       <c r="I78" s="129">
@@ -9177,14 +9168,14 @@
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,JoinCalendar,JPYSTD!D78,JPYSTD!E78,JPYSTD!F78,JPYSTD!G78,JPYSTD!I78,JPYSTD!C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00cfa#0008</v>
+        <v>obj_00288#0001</v>
       </c>
       <c r="L78" s="69" t="str">
-        <f>A84</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M78" s="142" t="str">
-        <f>IF(ISBLANK(J84),"--",J84)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N78" s="150" t="str">
@@ -9213,7 +9204,7 @@
         <v>--</v>
       </c>
       <c r="V78" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W78" s="3" t="e">
@@ -9263,11 +9254,11 @@
         <v>116</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B79&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L26Y_Quote</v>
       </c>
       <c r="I79" s="129">
@@ -9275,11 +9266,11 @@
       </c>
       <c r="J79" s="62"/>
       <c r="L79" s="69" t="str">
-        <f>A85</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M79" s="142" t="str">
-        <f>IF(ISBLANK(J85),"--",J85)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N79" s="150" t="str">
@@ -9308,7 +9299,7 @@
         <v>--</v>
       </c>
       <c r="V79" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W79" s="3" t="e">
@@ -9358,11 +9349,11 @@
         <v>116</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B80&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L27Y_Quote</v>
       </c>
       <c r="I80" s="129">
@@ -9370,11 +9361,11 @@
       </c>
       <c r="J80" s="62"/>
       <c r="L80" s="69" t="str">
-        <f>A86</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M80" s="142" t="str">
-        <f>IF(ISBLANK(J86),"--",J86)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N80" s="150" t="str">
@@ -9403,7 +9394,7 @@
         <v>--</v>
       </c>
       <c r="V80" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W80" s="3" t="e">
@@ -9453,11 +9444,11 @@
         <v>116</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B81&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L28Y_Quote</v>
       </c>
       <c r="I81" s="129">
@@ -9465,11 +9456,11 @@
       </c>
       <c r="J81" s="62"/>
       <c r="L81" s="70" t="str">
-        <f>A87</f>
+        <f t="shared" si="16"/>
         <v>Sw</v>
       </c>
       <c r="M81" s="145" t="str">
-        <f>IF(ISBLANK(J87),"--",J87)</f>
+        <f t="shared" si="17"/>
         <v>--</v>
       </c>
       <c r="N81" s="155" t="str">
@@ -9498,7 +9489,7 @@
         <v>--</v>
       </c>
       <c r="V81" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W81" s="5" t="e">
@@ -9548,11 +9539,11 @@
         <v>116</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B82&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L29Y_Quote</v>
       </c>
       <c r="I82" s="129">
@@ -9580,11 +9571,11 @@
         <v>116</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B83&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L30Y_Quote</v>
       </c>
       <c r="I83" s="129">
@@ -9592,7 +9583,7 @@
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,JoinCalendar,JPYSTD!D83,JPYSTD!E83,JPYSTD!F83,JPYSTD!G83,JPYSTD!I83,JPYSTD!C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00d01#0008</v>
+        <v>obj_0028b#0001</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
@@ -9615,11 +9606,11 @@
         <v>116</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B84&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L35Y_Quote</v>
       </c>
       <c r="I84" s="129">
@@ -9647,11 +9638,11 @@
         <v>116</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B85&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L40Y_Quote</v>
       </c>
       <c r="I85" s="127">
@@ -9679,11 +9670,11 @@
         <v>116</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B86&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L50Y_Quote</v>
       </c>
       <c r="I86" s="127">
@@ -9711,11 +9702,11 @@
         <v>116</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$49,"L","M")</f>
+        <f t="shared" si="18"/>
         <v>JpyLibor6M</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>Currency&amp;$G$49&amp;$H$49&amp;$B87&amp;"_Quote"</f>
+        <f t="shared" si="19"/>
         <v>JPYSB6L60Y_Quote</v>
       </c>
       <c r="I87" s="130">
